--- a/Index.xlsx
+++ b/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\uwecMuseum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11123DE8-717D-4403-BC77-893CB5BBE99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E05495B-B8D6-4EA9-B5DE-9B731AB28A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{73CDAB4E-9CF5-4FFB-9A2A-33804757E7C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="188">
   <si>
     <t>0039</t>
   </si>
@@ -587,14 +587,26 @@
     <t>was not unrolled</t>
   </si>
   <si>
-    <t>see Packing Letter  Roll 1F, 2F, 3F</t>
+    <t>see Packing Letter_Roll 1F, 2F, 3F</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Document 1</t>
+  </si>
+  <si>
+    <t>Docment 2</t>
+  </si>
+  <si>
+    <t>Document 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +634,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -665,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -681,13 +700,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1003,932 +1022,1824 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E320F0C-AA5B-48B7-AFAF-C1546C0DD64F}">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
+    <col min="2" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>179</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>180</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="4" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="9" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="9" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="9" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="9" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="9" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="9" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="C56" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="9" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="9" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="C64" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="9" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="9" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="9" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="9" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="9" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="9" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="9" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="9" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="9" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="9" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+      <c r="B85" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="9" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="G86" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="10"/>
-      <c r="B87" s="9" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+      <c r="B87" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="9" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="B89" s="9" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="9" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+      <c r="B90" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="9" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+      <c r="B91" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="9" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+      <c r="B94" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="9" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="B95" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="9" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="5"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="C97" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="9" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+      <c r="B99" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="9" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="9" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="9"/>
+      <c r="B101" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
-      <c r="C102" s="5"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="9" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="9"/>
+      <c r="B106" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A28:A31"/>
     <mergeCell ref="A105:A106"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A42:A44"/>
@@ -1941,90 +2852,28 @@
     <mergeCell ref="A84:A91"/>
     <mergeCell ref="A93:A96"/>
     <mergeCell ref="A98:A101"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A28:A31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{AD1BA488-BFC1-4E89-9C56-C53680DC0061}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{5B09EB38-E839-40E0-926A-0A22128A722F}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{9A8BE22C-E612-4B25-9E11-E5292AE5C4A6}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{576E5656-084E-4712-BE5A-73BC8BD84395}"/>
-    <hyperlink ref="B11" r:id="rId5" xr:uid="{F6596EFB-22C0-4E61-8A1E-F263E51E4CF4}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{78BF0102-06D1-43B1-A115-B037E0E77D8F}"/>
-    <hyperlink ref="B13" r:id="rId7" xr:uid="{D5B15133-729A-4A8F-A8C5-08CD23625515}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{1BF823CB-E86F-4B63-94F1-B16E93AF4C15}"/>
-    <hyperlink ref="B15" r:id="rId9" xr:uid="{2909C948-E683-48E0-8187-2173522CB548}"/>
-    <hyperlink ref="B16" r:id="rId10" xr:uid="{14E3C64B-FB8A-4E62-A951-73231DA3A499}"/>
-    <hyperlink ref="B17" r:id="rId11" xr:uid="{8D8AA1F0-899A-4968-813A-B91D90596AC8}"/>
-    <hyperlink ref="B19" r:id="rId12" xr:uid="{DD42B731-3C9D-4F54-8C82-FE418678AEB4}"/>
-    <hyperlink ref="B20" r:id="rId13" xr:uid="{AEEF0760-2E51-4120-8DFF-B3400E92119F}"/>
-    <hyperlink ref="B21" r:id="rId14" xr:uid="{3F079B0E-10A0-4A32-B476-DFFF44277F2D}"/>
-    <hyperlink ref="B23" r:id="rId15" xr:uid="{E67D1DCA-4028-42F3-8C6E-67044B264974}"/>
-    <hyperlink ref="B24" r:id="rId16" xr:uid="{A23C6893-3864-4769-A198-46A17062EE1A}"/>
-    <hyperlink ref="B25" r:id="rId17" xr:uid="{95B43AA1-9AF1-4D9E-87BB-8A4DCD9D48CE}"/>
-    <hyperlink ref="B26" r:id="rId18" xr:uid="{2314F756-CAC5-4513-B00E-BCBC4FD9A9A0}"/>
-    <hyperlink ref="B28" r:id="rId19" xr:uid="{BCEC9DAF-03B5-4B06-BDA2-6CEC27719B84}"/>
-    <hyperlink ref="B29" r:id="rId20" xr:uid="{3B07EED4-E780-4FFA-8AE8-B2E4ECD53E8B}"/>
-    <hyperlink ref="B30" r:id="rId21" xr:uid="{838BBBE5-EA2A-4D6F-B050-AB18D556F148}"/>
-    <hyperlink ref="B31" r:id="rId22" xr:uid="{7EF5685E-2FE4-49DC-B1C1-F606381C8689}"/>
-    <hyperlink ref="B33" r:id="rId23" xr:uid="{05FD84AB-9D68-4A2B-8EC8-4BE0C622B919}"/>
-    <hyperlink ref="B34" r:id="rId24" xr:uid="{0E64E7E3-E9EB-4527-BBCE-BCABA4970C95}"/>
-    <hyperlink ref="B35" r:id="rId25" xr:uid="{74C70CB8-46F6-4E7B-BDB7-F7125193FFF6}"/>
-    <hyperlink ref="B37" r:id="rId26" xr:uid="{A6256C5E-07F6-4670-AEAA-3C4650CAD68E}"/>
-    <hyperlink ref="B38" r:id="rId27" xr:uid="{5113FFEB-C3BF-4DF1-AFA0-FDF957BCD5DF}"/>
-    <hyperlink ref="B39" r:id="rId28" xr:uid="{F67A13CD-DAEE-4EB5-9226-E392A254C1C9}"/>
-    <hyperlink ref="B40" r:id="rId29" xr:uid="{97B6E8C3-9799-4380-BFCC-8BE6B4EF42CF}"/>
-    <hyperlink ref="B42" r:id="rId30" xr:uid="{57E9F8B3-44C4-45B8-8F18-5F19213BCBE1}"/>
-    <hyperlink ref="B43" r:id="rId31" xr:uid="{CB9638B8-DA4D-42E4-864E-896760A3E279}"/>
-    <hyperlink ref="B44" r:id="rId32" xr:uid="{30E7F1A9-2DA2-486E-87FC-2F0C2B8A0789}"/>
-    <hyperlink ref="B45" r:id="rId33" xr:uid="{C17FDEE8-D078-4A7E-9B7B-42BAA4E0631B}"/>
-    <hyperlink ref="B46" r:id="rId34" xr:uid="{FD18941E-5672-4B5C-BCE2-529A914C3B43}"/>
-    <hyperlink ref="B48" r:id="rId35" xr:uid="{733A7A0D-FF57-4808-89A0-B8DEE85A38FB}"/>
-    <hyperlink ref="B49" r:id="rId36" xr:uid="{43FE9A43-52AB-4B8E-996A-25D9F66A2052}"/>
-    <hyperlink ref="B50" r:id="rId37" xr:uid="{04A5F31A-832E-4609-85A4-2D7A8D07714A}"/>
-    <hyperlink ref="B51" r:id="rId38" xr:uid="{E5CE03EE-C925-47F6-8E53-350ADDD3DB45}"/>
-    <hyperlink ref="B52" r:id="rId39" xr:uid="{F8DFA3C4-6D69-45EC-ACCE-904B14B7A739}"/>
-    <hyperlink ref="B54" r:id="rId40" xr:uid="{09830CBB-348F-4379-BBC7-EDF160984B81}"/>
-    <hyperlink ref="B55" r:id="rId41" xr:uid="{140165BE-E047-4D3E-B060-BDA34AE815E9}"/>
-    <hyperlink ref="B57" r:id="rId42" xr:uid="{F2E66845-360E-4CB9-B48B-92D965676258}"/>
-    <hyperlink ref="B58" r:id="rId43" xr:uid="{2ED06025-B701-4D4A-BF98-AB7AC49EC84D}"/>
-    <hyperlink ref="B60" r:id="rId44" xr:uid="{5FB2110E-2923-460C-AC57-91278505C99D}"/>
-    <hyperlink ref="B61" r:id="rId45" xr:uid="{ABEAD5BC-892F-4B2B-80A0-4B4E3B87599F}"/>
-    <hyperlink ref="B63" r:id="rId46" xr:uid="{CFA34533-E874-40AA-BC33-EE674DF51487}"/>
-    <hyperlink ref="B65" r:id="rId47" xr:uid="{4D09E715-FBFB-49B4-9BC5-F0FCC33F5672}"/>
-    <hyperlink ref="B66" r:id="rId48" xr:uid="{40074062-4C4C-4A67-930D-36FD816D9283}"/>
-    <hyperlink ref="B67" r:id="rId49" xr:uid="{4F785537-2DF9-4A09-91F8-FD01C34D82DA}"/>
-    <hyperlink ref="B68" r:id="rId50" xr:uid="{D34D2636-F5F6-46DE-8C50-DFE523180E35}"/>
-    <hyperlink ref="B69" r:id="rId51" xr:uid="{A48ABDEF-62D2-47B8-B4EA-80433CC69492}"/>
-    <hyperlink ref="B71" r:id="rId52" xr:uid="{FCE027EB-ABFB-4653-AB8B-9D6FC58EA4CC}"/>
-    <hyperlink ref="B73" r:id="rId53" xr:uid="{14A7880D-00BF-4CEC-89B1-BDAC43010F31}"/>
-    <hyperlink ref="B75" r:id="rId54" xr:uid="{5ED05B3D-B11E-4447-B47D-644AE0B48B93}"/>
-    <hyperlink ref="B76" r:id="rId55" xr:uid="{3A251121-8656-4752-BDFA-0840484FF10E}"/>
-    <hyperlink ref="B77" r:id="rId56" xr:uid="{242F2529-388D-4586-AFC0-AEB4B53E6A52}"/>
-    <hyperlink ref="B78" r:id="rId57" xr:uid="{DD866321-4A18-4754-A9B3-423D46892186}"/>
-    <hyperlink ref="B79" r:id="rId58" xr:uid="{F88F7202-6C9D-484E-9721-67396686E631}"/>
-    <hyperlink ref="B80" r:id="rId59" xr:uid="{FC1239D9-6F4A-4694-8A70-253DEF388B9E}"/>
-    <hyperlink ref="B82" r:id="rId60" xr:uid="{FA559F94-043B-43E0-B7A4-37F87BEC72BA}"/>
-    <hyperlink ref="B84" r:id="rId61" xr:uid="{E2A51019-9CB8-4501-A8CD-8B8BFDA4661D}"/>
-    <hyperlink ref="B85" r:id="rId62" xr:uid="{8A2E33B2-D043-4583-91ED-B97569BB97C9}"/>
-    <hyperlink ref="B86" r:id="rId63" xr:uid="{0D051EC3-30B7-4EC3-9961-15D80F8EB96A}"/>
-    <hyperlink ref="B87" r:id="rId64" xr:uid="{39D0182E-BAA3-425D-95E7-3A5804475D70}"/>
-    <hyperlink ref="B88" r:id="rId65" xr:uid="{4745F9B5-701D-4E45-9ABE-35FD90CF1CA2}"/>
-    <hyperlink ref="B89" r:id="rId66" xr:uid="{34DE9968-E476-4B16-B2A0-00301C2C9A37}"/>
-    <hyperlink ref="B90" r:id="rId67" xr:uid="{CC8EBED9-4D03-48A0-9911-15FE893DB977}"/>
-    <hyperlink ref="B91" r:id="rId68" xr:uid="{BD86215D-D8E0-4A69-B081-8E1C285D30EC}"/>
-    <hyperlink ref="B93" r:id="rId69" xr:uid="{8FE3124B-D449-4173-BFB0-5F3A14C418E8}"/>
-    <hyperlink ref="B94" r:id="rId70" xr:uid="{5A7F7A89-0A84-4A30-B9FD-E41CAF380EDE}"/>
-    <hyperlink ref="B95" r:id="rId71" xr:uid="{5EE3DD4C-FBBD-4CD5-A81B-E181128BB827}"/>
-    <hyperlink ref="B96" r:id="rId72" xr:uid="{49F118FC-7FCF-41BA-A7EA-DB23DB5DD6B6}"/>
-    <hyperlink ref="B98" r:id="rId73" xr:uid="{41C19977-9607-40A4-8DA8-37DB3D31287C}"/>
-    <hyperlink ref="B99" r:id="rId74" xr:uid="{DD15030E-E7FA-4950-BAE3-3D25F7B47EF6}"/>
-    <hyperlink ref="B100" r:id="rId75" xr:uid="{182AFF9E-42D0-43DC-B2C4-AEBE96489AD4}"/>
-    <hyperlink ref="B101" r:id="rId76" xr:uid="{50B07D24-87BE-4AC1-A0E5-A7E69414773C}"/>
-    <hyperlink ref="B103" r:id="rId77" xr:uid="{16BB655A-18C6-4613-A5D5-D6A43DF61F81}"/>
-    <hyperlink ref="B105" r:id="rId78" xr:uid="{0BB0FACE-1773-4AD0-BE5C-58EB9DEF01F2}"/>
-    <hyperlink ref="B106" r:id="rId79" xr:uid="{BC5AA05E-2017-48B4-8E7D-F8FF9BA1D1B4}"/>
-    <hyperlink ref="A3" r:id="rId80" xr:uid="{D138DAFF-3FAC-496E-883F-44D91B93B234}"/>
-    <hyperlink ref="C3" r:id="rId81" display="see Packing Letter" xr:uid="{D01C6424-592D-4F4A-88C5-D71A0889B6EB}"/>
+    <hyperlink ref="G3" r:id="rId1" display="see Packing Letter" xr:uid="{D01C6424-592D-4F4A-88C5-D71A0889B6EB}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{38857C28-2FA8-4378-8010-55002E7F1F6B}"/>
+    <hyperlink ref="D1" r:id="rId3" xr:uid="{C068A2B1-4A9C-4F41-B0C7-AB95D7D3A83F}"/>
+    <hyperlink ref="E1" r:id="rId4" xr:uid="{3E48D4C4-D0C0-481A-85E6-4976108753B4}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{78D410EE-6A4C-4EDE-9EF1-CBF385CA21C8}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{034603C8-1A31-46AB-8822-55ED56A6B36B}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{EA5A6136-F995-457F-B94E-A583A51FCF48}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{491E12F5-31C8-4742-B2D1-4EC59D400547}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{96079681-AF5F-4074-B69B-B0BF265D4478}"/>
+    <hyperlink ref="D7" r:id="rId10" xr:uid="{2DA985A6-A0DF-49C5-B294-1BDCAB17F176}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{C8C6D6DE-4C5D-4054-B972-AAA4A9B9BB40}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{0422CBFF-C2CD-4A99-90CE-87430A0BC20F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Index.xlsx
+++ b/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\uwecMuseum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E05495B-B8D6-4EA9-B5DE-9B731AB28A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395390F2-EE00-4092-83B0-7479195D8B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{73CDAB4E-9CF5-4FFB-9A2A-33804757E7C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="188">
   <si>
     <t>0039</t>
   </si>
@@ -684,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -700,13 +700,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1024,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E320F0C-AA5B-48B7-AFAF-C1546C0DD64F}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1034,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B1" s="5"/>
@@ -1062,7 +1060,7 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>180</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1101,10 +1099,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1122,8 +1120,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1145,29 +1143,31 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F9" s="10"/>
+      <c r="C9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1175,143 +1175,141 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="C11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="10"/>
+      <c r="C12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F13" s="10"/>
+      <c r="C13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F14" s="10"/>
+      <c r="C14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="9"/>
       <c r="G14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="10"/>
+      <c r="C15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="9"/>
       <c r="G15" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="10"/>
+      <c r="C16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="10"/>
+      <c r="C17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1319,67 +1317,67 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" s="10"/>
+      <c r="C19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="9"/>
       <c r="G19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="10"/>
+      <c r="C20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="10"/>
+      <c r="C21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1387,86 +1385,86 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F23" s="10"/>
+      <c r="C23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="10"/>
+      <c r="C24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="9"/>
       <c r="G24" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" s="10"/>
+      <c r="C25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="G25" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F26" s="10"/>
+      <c r="C26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="5" t="s">
         <v>31</v>
       </c>
@@ -1474,86 +1472,90 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="10"/>
+      <c r="C28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="G28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" s="10"/>
+      <c r="C29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="9"/>
       <c r="G29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="10"/>
+      <c r="C30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="G30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" s="10"/>
+      <c r="C31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="5" t="s">
         <v>30</v>
       </c>
@@ -1561,67 +1563,69 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" s="10"/>
+      <c r="C33" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F34" s="10"/>
+      <c r="C34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="9"/>
       <c r="G34" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F35" s="10"/>
+      <c r="C35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="G35" s="5" t="s">
         <v>52</v>
       </c>
@@ -1629,86 +1633,88 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F37" s="10"/>
+      <c r="C37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="9"/>
       <c r="G37" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="13" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" s="10"/>
+      <c r="C38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="9"/>
       <c r="G38" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F39" s="10"/>
+      <c r="C39" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="9"/>
       <c r="G39" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" s="10"/>
+      <c r="C40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="G40" s="5" t="s">
         <v>68</v>
       </c>
@@ -1716,187 +1722,187 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="C42" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="13" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="C43" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="C44" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="C45" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="C46" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F48" s="10"/>
+      <c r="C48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F48" s="9"/>
       <c r="G48" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F49" s="10"/>
+      <c r="C49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" s="9"/>
       <c r="G49" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" s="10"/>
+      <c r="C50" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="9"/>
       <c r="G50" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="13" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F51" s="10"/>
+      <c r="C51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="9"/>
       <c r="G51" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F52" s="10"/>
+      <c r="C52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="9"/>
       <c r="G52" s="5" t="s">
         <v>153</v>
       </c>
@@ -1904,48 +1910,42 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F54" s="10"/>
+      <c r="C54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
       <c r="G54" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="13" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F55" s="10"/>
+      <c r="C55" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="5" t="s">
         <v>157</v>
       </c>
@@ -1953,54 +1953,44 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F57" s="10"/>
+      <c r="C57" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="13" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F58" s="10"/>
+      <c r="C58" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
       <c r="G58" s="5" t="s">
         <v>175</v>
       </c>
@@ -2008,48 +1998,46 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
       <c r="G59" s="5"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60" s="10"/>
+      <c r="C60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F60" s="9"/>
       <c r="G60" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="13" t="s">
+      <c r="A61" s="11"/>
+      <c r="B61" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F61" s="10"/>
+      <c r="C61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="5" t="s">
         <v>161</v>
       </c>
@@ -2057,35 +2045,29 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F62" s="10"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
       <c r="G62" s="5"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F63" s="10"/>
+      <c r="C63" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="9"/>
       <c r="G63" s="5" t="s">
         <v>163</v>
       </c>
@@ -2093,111 +2075,111 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F64" s="10"/>
+      <c r="C64" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" s="9"/>
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F65" s="10"/>
+      <c r="C65" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="9"/>
       <c r="G65" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="13" t="s">
+      <c r="A66" s="11"/>
+      <c r="B66" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F66" s="10"/>
+      <c r="C66" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F66" s="9"/>
       <c r="G66" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="13" t="s">
+      <c r="A67" s="11"/>
+      <c r="B67" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F67" s="10"/>
+      <c r="C67" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F67" s="9"/>
       <c r="G67" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="13" t="s">
+      <c r="A68" s="11"/>
+      <c r="B68" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F68" s="10"/>
+      <c r="C68" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F68" s="9"/>
       <c r="G68" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="13" t="s">
+      <c r="A69" s="11"/>
+      <c r="B69" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F69" s="10"/>
+      <c r="C69" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="9"/>
       <c r="G69" s="5" t="s">
         <v>118</v>
       </c>
@@ -2205,29 +2187,29 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
       <c r="G70" s="5"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F71" s="10"/>
+      <c r="C71" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F71" s="9"/>
       <c r="G71" s="5" t="s">
         <v>73</v>
       </c>
@@ -2235,29 +2217,29 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F73" s="10"/>
+      <c r="C73" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F73" s="9"/>
       <c r="G73" s="5" t="s">
         <v>76</v>
       </c>
@@ -2265,124 +2247,124 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="5"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F75" s="10"/>
+      <c r="C75" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F75" s="9"/>
       <c r="G75" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="13" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F76" s="10"/>
+      <c r="C76" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F76" s="9"/>
       <c r="G76" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="13" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F77" s="10"/>
+      <c r="C77" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" s="9"/>
       <c r="G77" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="13" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F78" s="10"/>
+      <c r="C78" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="9"/>
       <c r="G78" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="13" t="s">
+      <c r="A79" s="11"/>
+      <c r="B79" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F79" s="10"/>
+      <c r="C79" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F79" s="9"/>
       <c r="G79" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="13" t="s">
+      <c r="A80" s="11"/>
+      <c r="B80" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F80" s="10"/>
+      <c r="C80" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F80" s="9"/>
       <c r="G80" s="5" t="s">
         <v>93</v>
       </c>
@@ -2390,29 +2372,29 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F82" s="10"/>
+      <c r="C82" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F82" s="9"/>
       <c r="G82" s="5" t="s">
         <v>169</v>
       </c>
@@ -2420,162 +2402,162 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F84" s="10"/>
+      <c r="C84" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" s="9"/>
       <c r="G84" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="13" t="s">
+      <c r="A85" s="11"/>
+      <c r="B85" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F85" s="10"/>
+      <c r="C85" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F85" s="9"/>
       <c r="G85" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="13" t="s">
+      <c r="A86" s="11"/>
+      <c r="B86" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F86" s="10"/>
+      <c r="C86" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F86" s="9"/>
       <c r="G86" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="13" t="s">
+      <c r="A87" s="11"/>
+      <c r="B87" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F87" s="10"/>
+      <c r="C87" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F87" s="9"/>
       <c r="G87" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="13" t="s">
+      <c r="A88" s="11"/>
+      <c r="B88" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F88" s="10"/>
+      <c r="C88" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F88" s="9"/>
       <c r="G88" s="5" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="13" t="s">
+      <c r="A89" s="11"/>
+      <c r="B89" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F89" s="10"/>
+      <c r="C89" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F89" s="9"/>
       <c r="G89" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="13" t="s">
+      <c r="A90" s="11"/>
+      <c r="B90" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F90" s="10"/>
+      <c r="C90" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F90" s="9"/>
       <c r="G90" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-      <c r="B91" s="13" t="s">
+      <c r="A91" s="11"/>
+      <c r="B91" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F91" s="10"/>
+      <c r="C91" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F91" s="9"/>
       <c r="G91" s="5" t="s">
         <v>110</v>
       </c>
@@ -2583,80 +2565,80 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
       <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E93" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F93" s="10"/>
+      <c r="C93" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" s="9"/>
       <c r="G93" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
-      <c r="B94" s="13" t="s">
+      <c r="A94" s="11"/>
+      <c r="B94" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F94" s="10"/>
+      <c r="C94" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" s="9"/>
       <c r="G94" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="13" t="s">
+      <c r="A95" s="11"/>
+      <c r="B95" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F95" s="10"/>
+      <c r="C95" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" s="9"/>
       <c r="G95" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
-      <c r="B96" s="13" t="s">
+      <c r="A96" s="11"/>
+      <c r="B96" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
       <c r="G96" s="5" t="s">
         <v>125</v>
       </c>
@@ -2664,92 +2646,92 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F97" s="10"/>
+      <c r="C97" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" s="9"/>
       <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E98" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F98" s="10"/>
+      <c r="C98" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" s="9"/>
       <c r="G98" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
-      <c r="B99" s="13" t="s">
+      <c r="A99" s="11"/>
+      <c r="B99" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F99" s="10"/>
+      <c r="C99" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" s="9"/>
       <c r="G99" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="13" t="s">
+      <c r="A100" s="11"/>
+      <c r="B100" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F100" s="10"/>
+      <c r="C100" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F100" s="9"/>
       <c r="G100" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
-      <c r="B101" s="13" t="s">
+      <c r="A101" s="11"/>
+      <c r="B101" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F101" s="10"/>
+      <c r="C101" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F101" s="9"/>
       <c r="G101" s="5" t="s">
         <v>135</v>
       </c>
@@ -2757,29 +2739,29 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
       <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F103" s="10"/>
+      <c r="C103" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F103" s="9"/>
       <c r="G103" s="5" t="s">
         <v>142</v>
       </c>
@@ -2787,48 +2769,48 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
       <c r="G104" s="5"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F105" s="10"/>
+      <c r="C105" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F105" s="9"/>
       <c r="G105" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
-      <c r="B106" s="13" t="s">
+      <c r="A106" s="11"/>
+      <c r="B106" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F106" s="10"/>
+      <c r="C106" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F106" s="9"/>
       <c r="G106" s="5" t="s">
         <v>81</v>
       </c>
@@ -2840,6 +2822,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A28:A31"/>
     <mergeCell ref="A105:A106"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A42:A44"/>
@@ -2852,12 +2840,6 @@
     <mergeCell ref="A84:A91"/>
     <mergeCell ref="A93:A96"/>
     <mergeCell ref="A98:A101"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A28:A31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" display="see Packing Letter" xr:uid="{D01C6424-592D-4F4A-88C5-D71A0889B6EB}"/>
@@ -2872,8 +2854,121 @@
     <hyperlink ref="D7" r:id="rId10" xr:uid="{2DA985A6-A0DF-49C5-B294-1BDCAB17F176}"/>
     <hyperlink ref="E7" r:id="rId11" xr:uid="{C8C6D6DE-4C5D-4054-B972-AAA4A9B9BB40}"/>
     <hyperlink ref="F7" r:id="rId12" xr:uid="{0422CBFF-C2CD-4A99-90CE-87430A0BC20F}"/>
+    <hyperlink ref="C9" r:id="rId13" xr:uid="{06BD7217-69BA-4C76-99B1-F4DF029E7FB5}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{1961E1E7-783F-4F65-BB85-881CC786BBA0}"/>
+    <hyperlink ref="E9" r:id="rId15" xr:uid="{6ED15268-6821-4E2E-8D6D-F687F321EEE6}"/>
+    <hyperlink ref="F9" r:id="rId16" xr:uid="{E8CAE9BD-C463-4E1A-A528-970E872BCABA}"/>
+    <hyperlink ref="C11" r:id="rId17" xr:uid="{EA55B2F0-AC08-499D-8611-9DA7E23E831F}"/>
+    <hyperlink ref="D11" r:id="rId18" xr:uid="{F9CE6FDA-62A0-4F48-9E38-543FE680F3C6}"/>
+    <hyperlink ref="C12" r:id="rId19" xr:uid="{0A7214D3-D239-44BD-8F7F-8499A4FFC93B}"/>
+    <hyperlink ref="D12" r:id="rId20" xr:uid="{5C4B7036-C725-4BAB-8F5A-E12346C28084}"/>
+    <hyperlink ref="E12" r:id="rId21" xr:uid="{56553E4F-94F8-42C8-B940-53B14A1C6518}"/>
+    <hyperlink ref="C13" r:id="rId22" xr:uid="{77CA5813-A922-46F6-8FA9-3727ABE527D8}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{F24A30CC-01B0-4ACF-A348-30ABA8289B4C}"/>
+    <hyperlink ref="E13" r:id="rId24" xr:uid="{815B465B-69EE-40E1-BD93-DEE3E8C0CD93}"/>
+    <hyperlink ref="C14" r:id="rId25" xr:uid="{F016EDA6-143C-4058-AC9E-C5B43AE04211}"/>
+    <hyperlink ref="D14" r:id="rId26" xr:uid="{9A392A6A-A6A4-490B-AB0B-6BCE158A2343}"/>
+    <hyperlink ref="E14" r:id="rId27" xr:uid="{8F3BC34F-13CD-4F54-AF1E-46D3B28EE40E}"/>
+    <hyperlink ref="C15" r:id="rId28" xr:uid="{0788BC6C-51D1-40B5-A55B-B68343B69E0A}"/>
+    <hyperlink ref="D15" r:id="rId29" xr:uid="{4D8CACA9-23B6-4C43-A9AB-74BAB773D638}"/>
+    <hyperlink ref="E15" r:id="rId30" xr:uid="{1AFE6940-79DA-44C6-884B-CF39550A14F1}"/>
+    <hyperlink ref="C16" r:id="rId31" xr:uid="{BEB39C44-8B16-49CF-8269-58379B6FE4E6}"/>
+    <hyperlink ref="D16" r:id="rId32" xr:uid="{1AB24727-44CC-4E69-9CC9-1528F913D19B}"/>
+    <hyperlink ref="E16" r:id="rId33" xr:uid="{67FD66A9-027F-4BC6-AD50-76AB523AD248}"/>
+    <hyperlink ref="C17" r:id="rId34" xr:uid="{6F1EC492-EFE7-481C-B3C8-B261D39FA39C}"/>
+    <hyperlink ref="D17" r:id="rId35" xr:uid="{27899BE2-2CD5-4B1F-83F8-1EF29D950F24}"/>
+    <hyperlink ref="E17" r:id="rId36" xr:uid="{26F80BB9-6840-4250-80EE-8D2D365626C4}"/>
+    <hyperlink ref="C19" r:id="rId37" xr:uid="{5926C285-A504-4A3B-8328-6536548F31F8}"/>
+    <hyperlink ref="D19" r:id="rId38" xr:uid="{B394AB56-9E68-433D-976D-962D3FB20CFC}"/>
+    <hyperlink ref="E19" r:id="rId39" xr:uid="{A96FEA2A-DDDD-4545-8A08-EE82995393D2}"/>
+    <hyperlink ref="C20" r:id="rId40" xr:uid="{74C3C817-2C43-479E-903A-1DDE285475A1}"/>
+    <hyperlink ref="D20" r:id="rId41" xr:uid="{59826A58-E6F6-4439-92D2-09F6861B8BC8}"/>
+    <hyperlink ref="E20" r:id="rId42" xr:uid="{246EF5BE-DA4D-40D1-BB25-724B01D8AC3A}"/>
+    <hyperlink ref="C21" r:id="rId43" xr:uid="{6E6E80BD-9594-4313-8752-3C2868506050}"/>
+    <hyperlink ref="D21" r:id="rId44" xr:uid="{360880A4-2830-4637-9BEC-CD767F7F6FF2}"/>
+    <hyperlink ref="E21" r:id="rId45" xr:uid="{AE0353C3-4841-4529-9D7A-C0474876CB78}"/>
+    <hyperlink ref="C23" r:id="rId46" xr:uid="{E8B052C6-8258-4B36-AC5F-6F2236B15338}"/>
+    <hyperlink ref="D23" r:id="rId47" xr:uid="{E269671D-8413-4EC1-8826-F729F1663BC5}"/>
+    <hyperlink ref="E23" r:id="rId48" xr:uid="{BC2E79B5-0BF1-4D18-9B37-95F4465D3842}"/>
+    <hyperlink ref="C24" r:id="rId49" xr:uid="{D4308908-43C7-4C0C-BBCE-1C6F9BFFB990}"/>
+    <hyperlink ref="D24" r:id="rId50" xr:uid="{37F8F6FF-96F9-4233-8232-F16B977EB309}"/>
+    <hyperlink ref="E24" r:id="rId51" xr:uid="{7FFC740A-F281-4846-B6F4-CA6B6EF242CE}"/>
+    <hyperlink ref="C25" r:id="rId52" xr:uid="{1DC549D5-7DD8-4F04-BB8B-AC0E24FB8DB9}"/>
+    <hyperlink ref="D25" r:id="rId53" xr:uid="{98CEB403-60ED-4A04-A512-AA987F9F3AD9}"/>
+    <hyperlink ref="E25" r:id="rId54" xr:uid="{A229D252-FC89-4B77-8CF6-ADD8F10CD767}"/>
+    <hyperlink ref="F25" r:id="rId55" xr:uid="{D53DB0BC-B08E-4DE4-9512-825EBD92301A}"/>
+    <hyperlink ref="C26" r:id="rId56" xr:uid="{9FB8B2F5-F368-48D6-A831-FD131F1B2624}"/>
+    <hyperlink ref="D26" r:id="rId57" xr:uid="{AB22249D-9EB0-491C-96FD-0FCAC82B9774}"/>
+    <hyperlink ref="C28" r:id="rId58" xr:uid="{9B1EBCD9-9451-41DD-BC46-D050C1B9CB6C}"/>
+    <hyperlink ref="D28" r:id="rId59" xr:uid="{6853FA00-5145-4AFE-A499-B169DD248253}"/>
+    <hyperlink ref="E28" r:id="rId60" xr:uid="{46B76089-18AB-4128-BD98-CFD4AF95516A}"/>
+    <hyperlink ref="F28" r:id="rId61" xr:uid="{F7595784-40CD-4BC0-A4F6-B6F2F858BCB4}"/>
+    <hyperlink ref="C29" r:id="rId62" xr:uid="{42D696CE-85C8-42ED-87B6-5F97B4DC34C0}"/>
+    <hyperlink ref="D29" r:id="rId63" xr:uid="{A39F7EC4-DBB9-43E4-AED6-8CBEB001364E}"/>
+    <hyperlink ref="E29" r:id="rId64" xr:uid="{95E1E396-ABF7-4EF4-A107-8D5764919BDD}"/>
+    <hyperlink ref="C30" r:id="rId65" xr:uid="{9B69F9EF-35D2-4DDC-8302-0F760E29C4D9}"/>
+    <hyperlink ref="D30" r:id="rId66" xr:uid="{19C3222C-8D36-4504-BC4C-D8C285F84B81}"/>
+    <hyperlink ref="E30" r:id="rId67" xr:uid="{50E402F7-F5FE-4C12-89D2-F801EAB57178}"/>
+    <hyperlink ref="F30" r:id="rId68" xr:uid="{F4F4316C-37C7-4C7A-A491-75B1830AEF6D}"/>
+    <hyperlink ref="C31" r:id="rId69" xr:uid="{842DA486-2E2C-4606-B099-596C8302E1EE}"/>
+    <hyperlink ref="D31" r:id="rId70" xr:uid="{5D1990E3-781C-4EF6-975C-9EDE4135FD9B}"/>
+    <hyperlink ref="E31" r:id="rId71" xr:uid="{3B6F0E53-9E06-4CDF-8A32-0DF368F27D32}"/>
+    <hyperlink ref="C42" r:id="rId72" xr:uid="{E8D05010-0C1C-4B00-988B-DDE66E2DC7D4}"/>
+    <hyperlink ref="C43" r:id="rId73" xr:uid="{37FF811E-0F9C-4F58-85D7-D19683993FB5}"/>
+    <hyperlink ref="C44" r:id="rId74" xr:uid="{F330E42F-9413-464E-BCD8-F4FCC803660B}"/>
+    <hyperlink ref="C45" r:id="rId75" xr:uid="{391E9DF8-D826-4145-A9A5-43D67915A2F7}"/>
+    <hyperlink ref="C46" r:id="rId76" xr:uid="{B15D954E-DE7E-45E4-A501-5DB25C698136}"/>
+    <hyperlink ref="C33" r:id="rId77" xr:uid="{D65F8A4B-54BC-4615-A8D6-BD39EAF52057}"/>
+    <hyperlink ref="D33" r:id="rId78" xr:uid="{F0C93DE2-92E4-40EF-B5F6-CAD1846C05FE}"/>
+    <hyperlink ref="E33" r:id="rId79" xr:uid="{2EDA09A4-88A8-4B1E-B940-933392D02791}"/>
+    <hyperlink ref="C34" r:id="rId80" xr:uid="{8C5552B0-DCA1-454B-8EE2-0DE99BCAD35E}"/>
+    <hyperlink ref="D34" r:id="rId81" xr:uid="{4405AB29-B2E8-4463-A093-C8C07BCDFE9A}"/>
+    <hyperlink ref="E34" r:id="rId82" xr:uid="{A2A54EAF-B035-4380-B246-3D77A102656C}"/>
+    <hyperlink ref="C35" r:id="rId83" xr:uid="{0B4344FD-176F-4AD6-8FCE-1CF81628E0A1}"/>
+    <hyperlink ref="D35" r:id="rId84" xr:uid="{BC8786D9-6D18-40D3-A6F8-C585F6819E1F}"/>
+    <hyperlink ref="E35" r:id="rId85" xr:uid="{34DDDB73-2E64-4423-91D2-FD11C97A3F0C}"/>
+    <hyperlink ref="F35" r:id="rId86" xr:uid="{46382DEC-8EA0-4DF0-875C-2DED37A3FED8}"/>
+    <hyperlink ref="C37" r:id="rId87" xr:uid="{B4EECBE4-3330-47DE-B095-26F1E10FA653}"/>
+    <hyperlink ref="D37" r:id="rId88" xr:uid="{7E5523B1-D637-41DD-9602-76D40C7CEC49}"/>
+    <hyperlink ref="E37" r:id="rId89" xr:uid="{02CFCA11-61E9-4BD8-BC36-C19E25F43F13}"/>
+    <hyperlink ref="C38" r:id="rId90" xr:uid="{0890567B-594E-4426-9A40-ECE135A603ED}"/>
+    <hyperlink ref="D38" r:id="rId91" xr:uid="{B8E8809A-2647-4775-B29A-F4AB7206FE61}"/>
+    <hyperlink ref="E38" r:id="rId92" xr:uid="{612289E3-E748-4A1F-99E1-6A72FB2C88D3}"/>
+    <hyperlink ref="C39" r:id="rId93" xr:uid="{BAE10024-A67E-4D9B-8C18-1A415408579D}"/>
+    <hyperlink ref="D39" r:id="rId94" xr:uid="{F71BA5AB-D4ED-4CBC-B6B5-8377CC95922B}"/>
+    <hyperlink ref="E39" r:id="rId95" xr:uid="{1AE0F8F6-C3CE-4D48-B58F-272797B79153}"/>
+    <hyperlink ref="C40" r:id="rId96" xr:uid="{696507CE-A9DA-49D3-AD6E-69478644B77A}"/>
+    <hyperlink ref="D40" r:id="rId97" xr:uid="{A2FC7527-B248-44D3-AD6C-6805A6321B99}"/>
+    <hyperlink ref="E40" r:id="rId98" xr:uid="{15AAB6FE-82D8-4DC3-9110-6AF58F885BEC}"/>
+    <hyperlink ref="F40" r:id="rId99" xr:uid="{0CE91C04-0FA7-4DDC-8B4E-73C10A0F25AD}"/>
+    <hyperlink ref="C48" r:id="rId100" xr:uid="{B1BC80AA-CBF8-40D5-A757-D70857F2B5A3}"/>
+    <hyperlink ref="D48" r:id="rId101" xr:uid="{E486D5A4-AE49-481E-8B37-122E2F079B91}"/>
+    <hyperlink ref="E48" r:id="rId102" xr:uid="{576FBB34-6062-4BFE-972C-BD2AC181AAD1}"/>
+    <hyperlink ref="C49" r:id="rId103" xr:uid="{562E0074-7317-4DD7-9852-E3AD66A302B2}"/>
+    <hyperlink ref="D49" r:id="rId104" xr:uid="{3C5BC570-5EB6-4A77-8C6B-7539F8AEC89B}"/>
+    <hyperlink ref="E49" r:id="rId105" xr:uid="{3A47D54D-5A67-494E-8D43-06CCC668BEA9}"/>
+    <hyperlink ref="C50" r:id="rId106" xr:uid="{41481858-77AF-4CD5-9676-6D1488A9EA91}"/>
+    <hyperlink ref="D50" r:id="rId107" xr:uid="{E0183FF7-0954-42D0-B959-174A497CE75F}"/>
+    <hyperlink ref="C51" r:id="rId108" xr:uid="{63153961-3BF5-435B-9A68-833A5791BB42}"/>
+    <hyperlink ref="D51" r:id="rId109" xr:uid="{BE058808-C9A2-4224-A136-14383E3A85B7}"/>
+    <hyperlink ref="E51" r:id="rId110" xr:uid="{8BD493C8-2EB0-4692-86A5-A2E4D9B1E17C}"/>
+    <hyperlink ref="C52" r:id="rId111" xr:uid="{7112678F-7691-415A-8579-2C0ACD7B733A}"/>
+    <hyperlink ref="D52" r:id="rId112" xr:uid="{DB53CC9E-F146-4C2F-A790-1C9665E49B6E}"/>
+    <hyperlink ref="E52" r:id="rId113" xr:uid="{6CB3814F-89C6-430C-91C7-3B44ED98C46F}"/>
+    <hyperlink ref="C54" r:id="rId114" xr:uid="{E95F8AAC-06E1-4FDC-8887-F02425CD56DD}"/>
+    <hyperlink ref="D54" r:id="rId115" xr:uid="{FCBA0577-1F27-49E3-9662-B3071CC6CC2F}"/>
+    <hyperlink ref="C55" r:id="rId116" xr:uid="{0F65D19A-34ED-41D4-8D97-52DD3192FB34}"/>
+    <hyperlink ref="C57" r:id="rId117" xr:uid="{2C02AAC1-9CE0-4ACE-9A8F-FA8FA343F3A9}"/>
+    <hyperlink ref="D57" r:id="rId118" xr:uid="{19978FF7-6AE5-48A3-8F05-8FFD4D57B34A}"/>
+    <hyperlink ref="C58" r:id="rId119" xr:uid="{F8307953-DC41-4075-B11F-BB3A46C62092}"/>
+    <hyperlink ref="D58" r:id="rId120" xr:uid="{D5145C24-AB4F-49AC-AF5C-451E57D6A407}"/>
+    <hyperlink ref="C60" r:id="rId121" xr:uid="{736323D1-3F1E-43EF-BBE2-2FD9FFB404AC}"/>
+    <hyperlink ref="D60" r:id="rId122" xr:uid="{2BF39744-4677-4353-8DD9-342453217EAF}"/>
+    <hyperlink ref="E60" r:id="rId123" xr:uid="{4EFEDEA4-7628-44FD-94E0-3968C813585F}"/>
+    <hyperlink ref="C61" r:id="rId124" xr:uid="{EF968489-6132-49E4-998C-004B43CAADF5}"/>
+    <hyperlink ref="D61" r:id="rId125" xr:uid="{CEE6161B-90A7-45E6-84D2-97196D54E536}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId126"/>
 </worksheet>
 </file>
--- a/Index.xlsx
+++ b/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\uwecMuseum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395390F2-EE00-4092-83B0-7479195D8B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6AD1E5-0F36-4A0B-9A15-5DAED5D9DEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{73CDAB4E-9CF5-4FFB-9A2A-33804757E7C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="188">
   <si>
     <t>0039</t>
   </si>
@@ -684,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -705,6 +705,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1020,20 +1022,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E320F0C-AA5B-48B7-AFAF-C1546C0DD64F}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>179</v>
       </c>
@@ -1048,9 +1057,12 @@
         <v>187</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1058,8 +1070,11 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>180</v>
       </c>
@@ -1070,11 +1085,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1082,8 +1100,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>176</v>
       </c>
@@ -1094,11 +1115,14 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
@@ -1115,11 +1139,14 @@
         <v>184</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -1136,20 +1163,26 @@
       <c r="F7" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
@@ -1168,20 +1201,26 @@
       <c r="F9" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>47</v>
       </c>
@@ -1196,11 +1235,14 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="5" t="s">
         <v>3</v>
@@ -1215,11 +1257,14 @@
         <v>184</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="5" t="s">
         <v>4</v>
@@ -1234,11 +1279,14 @@
         <v>184</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="5" t="s">
         <v>5</v>
@@ -1253,11 +1301,14 @@
         <v>184</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="5" t="s">
         <v>6</v>
@@ -1272,11 +1323,14 @@
         <v>184</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
         <v>7</v>
@@ -1291,11 +1345,14 @@
         <v>184</v>
       </c>
       <c r="F16" s="9"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
@@ -1310,20 +1367,26 @@
         <v>184</v>
       </c>
       <c r="F17" s="9"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>46</v>
       </c>
@@ -1340,11 +1403,14 @@
         <v>184</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
         <v>14</v>
@@ -1359,11 +1425,14 @@
         <v>184</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="5" t="s">
         <v>11</v>
@@ -1378,20 +1447,26 @@
         <v>184</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>45</v>
       </c>
@@ -1408,11 +1483,14 @@
         <v>184</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="5" t="s">
         <v>27</v>
@@ -1427,11 +1505,14 @@
         <v>184</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="5" t="s">
         <v>28</v>
@@ -1448,11 +1529,14 @@
       <c r="F25" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="5" t="s">
         <v>29</v>
@@ -1465,20 +1549,26 @@
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>44</v>
       </c>
@@ -1497,11 +1587,14 @@
       <c r="F28" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="5" t="s">
         <v>34</v>
@@ -1516,11 +1609,14 @@
         <v>184</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="5" t="s">
         <v>35</v>
@@ -1537,11 +1633,14 @@
       <c r="F30" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="5" t="s">
         <v>36</v>
@@ -1556,20 +1655,26 @@
         <v>184</v>
       </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -1586,11 +1691,14 @@
         <v>184</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="5" t="s">
         <v>41</v>
@@ -1605,11 +1713,14 @@
         <v>184</v>
       </c>
       <c r="F34" s="9"/>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
         <v>42</v>
@@ -1626,20 +1737,26 @@
       <c r="F35" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>57</v>
       </c>
@@ -1656,11 +1773,14 @@
         <v>184</v>
       </c>
       <c r="F37" s="9"/>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="5" t="s">
         <v>54</v>
@@ -1675,11 +1795,14 @@
         <v>184</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="5" t="s">
         <v>55</v>
@@ -1694,11 +1817,14 @@
         <v>184</v>
       </c>
       <c r="F39" s="9"/>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="5" t="s">
         <v>56</v>
@@ -1715,20 +1841,26 @@
       <c r="F40" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>64</v>
       </c>
@@ -1741,11 +1873,14 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="5" t="s">
         <v>59</v>
@@ -1756,11 +1891,14 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="5" t="s">
         <v>60</v>
@@ -1771,11 +1909,14 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5" t="s">
         <v>69</v>
@@ -1786,9 +1927,12 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5" t="s">
         <v>70</v>
@@ -1799,18 +1943,24 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>143</v>
       </c>
@@ -1827,11 +1977,14 @@
         <v>184</v>
       </c>
       <c r="F48" s="9"/>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="5" t="s">
         <v>144</v>
@@ -1846,11 +1999,14 @@
         <v>184</v>
       </c>
       <c r="F49" s="9"/>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="5" t="s">
         <v>146</v>
@@ -1865,11 +2021,14 @@
         <v>181</v>
       </c>
       <c r="F50" s="9"/>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="5" t="s">
         <v>147</v>
@@ -1884,11 +2043,14 @@
         <v>184</v>
       </c>
       <c r="F51" s="9"/>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="5" t="s">
         <v>148</v>
@@ -1903,20 +2065,26 @@
         <v>184</v>
       </c>
       <c r="F52" s="9"/>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>154</v>
       </c>
@@ -1931,11 +2099,14 @@
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="5" t="s">
         <v>156</v>
@@ -1946,20 +2117,26 @@
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="6"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>171</v>
       </c>
@@ -1974,11 +2151,14 @@
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="5" t="s">
         <v>173</v>
@@ -1991,20 +2171,26 @@
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>159</v>
       </c>
@@ -2021,11 +2207,14 @@
         <v>184</v>
       </c>
       <c r="F60" s="9"/>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="5" t="s">
         <v>165</v>
@@ -2038,811 +2227,964 @@
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" s="9" t="s">
+      <c r="C63" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F63" s="9"/>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
-      <c r="C64" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E65" s="9" t="s">
+      <c r="C65" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F65" s="9"/>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E66" s="9" t="s">
+      <c r="C66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F66" s="9"/>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E67" s="9" t="s">
+      <c r="C67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F67" s="9"/>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E68" s="9" t="s">
+      <c r="C68" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F68" s="9"/>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="C69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" s="9"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E71" s="9" t="s">
+      <c r="C71" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F71" s="9"/>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="9" t="s">
+      <c r="C73" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F73" s="9"/>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" s="9" t="s">
+      <c r="C75" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F75" s="9"/>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="5" t="s">
+      <c r="C76" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E77" s="9" t="s">
+      <c r="C77" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F77" s="9"/>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E78" s="9" t="s">
+      <c r="C78" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F78" s="9"/>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="5" t="s">
+      <c r="C79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="5"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F80" s="9"/>
-      <c r="G80" s="5" t="s">
+      <c r="C81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="5"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B83" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="5" t="s">
+      <c r="C83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J83" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="5" t="s">
+      <c r="C85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E87" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F87" s="9"/>
-      <c r="G87" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>184</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" s="12"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E89" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F89" s="9"/>
-      <c r="G89" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E90" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F90" s="9"/>
-      <c r="G90" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="5" t="s">
+      <c r="C92" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="5" t="s">
+      <c r="C94" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E95" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F95" s="9"/>
-      <c r="G95" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="5" t="s">
+      <c r="C97" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F97" s="9"/>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F98" s="9"/>
-      <c r="G98" s="5" t="s">
+      <c r="C99" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E100" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E100" s="4" t="s">
         <v>184</v>
       </c>
       <c r="F100" s="9"/>
-      <c r="G100" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="9"/>
+      <c r="C102" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B104" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="5" t="s">
+      <c r="C104" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B106" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="5" t="s">
+      <c r="C106" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="5" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="5" t="s">
+      <c r="C107" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A85:A92"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A99:A102"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A98:A101"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="see Packing Letter" xr:uid="{D01C6424-592D-4F4A-88C5-D71A0889B6EB}"/>
+    <hyperlink ref="J3" r:id="rId1" display="see Packing Letter" xr:uid="{D01C6424-592D-4F4A-88C5-D71A0889B6EB}"/>
     <hyperlink ref="C1" r:id="rId2" xr:uid="{38857C28-2FA8-4378-8010-55002E7F1F6B}"/>
     <hyperlink ref="D1" r:id="rId3" xr:uid="{C068A2B1-4A9C-4F41-B0C7-AB95D7D3A83F}"/>
     <hyperlink ref="E1" r:id="rId4" xr:uid="{3E48D4C4-D0C0-481A-85E6-4976108753B4}"/>
@@ -2967,8 +3309,116 @@
     <hyperlink ref="E60" r:id="rId123" xr:uid="{4EFEDEA4-7628-44FD-94E0-3968C813585F}"/>
     <hyperlink ref="C61" r:id="rId124" xr:uid="{EF968489-6132-49E4-998C-004B43CAADF5}"/>
     <hyperlink ref="D61" r:id="rId125" xr:uid="{CEE6161B-90A7-45E6-84D2-97196D54E536}"/>
+    <hyperlink ref="C63" r:id="rId126" xr:uid="{88D7FD81-63F9-420F-AA70-56231F777FC9}"/>
+    <hyperlink ref="D63" r:id="rId127" xr:uid="{F31E04A5-F062-4FCA-806E-EF1570952126}"/>
+    <hyperlink ref="E63" r:id="rId128" xr:uid="{83818758-3F1A-43AF-902C-CDDC9CC06F9C}"/>
+    <hyperlink ref="C71" r:id="rId129" xr:uid="{281F2AAB-AFA5-4A27-96FB-C54959959D33}"/>
+    <hyperlink ref="D71" r:id="rId130" xr:uid="{486B9224-FE41-4FD4-847B-1F0FB30F32D8}"/>
+    <hyperlink ref="E71" r:id="rId131" xr:uid="{40CAF029-3FCA-438C-A1A4-BE715652EC0E}"/>
+    <hyperlink ref="C65" r:id="rId132" xr:uid="{8440B7CF-2AB5-4EBE-9A6A-B4B9763DCD2E}"/>
+    <hyperlink ref="D65" r:id="rId133" xr:uid="{4B731B36-9B0C-4DF1-B0F0-6783FCE3B772}"/>
+    <hyperlink ref="E65" r:id="rId134" xr:uid="{01206B18-3AE3-44BD-A359-797833191A18}"/>
+    <hyperlink ref="C66" r:id="rId135" xr:uid="{FAF8CD8F-9B49-4ECA-BACE-CD30B2E5E1E7}"/>
+    <hyperlink ref="D66" r:id="rId136" xr:uid="{68666B5E-C459-4F93-AC56-16AACE869486}"/>
+    <hyperlink ref="E66" r:id="rId137" xr:uid="{7A61433D-2B57-457A-83D7-084359E33044}"/>
+    <hyperlink ref="C67" r:id="rId138" xr:uid="{30F81B27-5BB1-4903-93F1-C6FFB3CA63EA}"/>
+    <hyperlink ref="D67" r:id="rId139" xr:uid="{8BE04668-B298-4065-BB79-B0324CEE4601}"/>
+    <hyperlink ref="E67" r:id="rId140" xr:uid="{707B55B4-C4FE-4B4E-AAE3-634AABC034F8}"/>
+    <hyperlink ref="C68" r:id="rId141" xr:uid="{BE069D07-B2C8-4375-940E-4A2F5332A77C}"/>
+    <hyperlink ref="D68" r:id="rId142" xr:uid="{916D81CC-946E-4460-AD32-592DAE1BC7AF}"/>
+    <hyperlink ref="E68" r:id="rId143" xr:uid="{45596EC7-D9DD-4427-87CC-737C7F8E684F}"/>
+    <hyperlink ref="C69" r:id="rId144" xr:uid="{19A7AAAC-B6D4-4112-BAD4-7E8672149518}"/>
+    <hyperlink ref="D69" r:id="rId145" xr:uid="{3E2DB5FC-6F32-4BC4-8D31-AB89F782F0B7}"/>
+    <hyperlink ref="C73" r:id="rId146" xr:uid="{427E51F0-223B-4101-A50F-874A50CA9B42}"/>
+    <hyperlink ref="D73" r:id="rId147" xr:uid="{188BBF00-7973-4A8A-9268-5287A42E5C7A}"/>
+    <hyperlink ref="E73" r:id="rId148" xr:uid="{8EF5916B-9944-422E-8D7C-F0A9F0EDD864}"/>
+    <hyperlink ref="C75" r:id="rId149" xr:uid="{793271E8-A8A2-471B-B7F5-66DB5EBB830D}"/>
+    <hyperlink ref="D75" r:id="rId150" xr:uid="{47C0C4E6-15EA-44FB-92A0-B8196B219C09}"/>
+    <hyperlink ref="E75" r:id="rId151" xr:uid="{9CAB9A7C-8685-4B35-B980-AB314ADA3505}"/>
+    <hyperlink ref="C76" r:id="rId152" xr:uid="{713E8F28-F187-4C75-AF67-A67B676049BD}"/>
+    <hyperlink ref="D76" r:id="rId153" xr:uid="{330DFC75-39D1-4CF6-BE80-8C925D23805B}"/>
+    <hyperlink ref="E76" r:id="rId154" xr:uid="{D3E68D37-51D7-4B6E-9DEC-2F42B743B89A}"/>
+    <hyperlink ref="F76" r:id="rId155" xr:uid="{B3BE9A46-00E7-4CBE-9C86-3BC891E2F877}"/>
+    <hyperlink ref="C77" r:id="rId156" xr:uid="{E959C980-893B-458E-9FB1-ABAA2EB8DE63}"/>
+    <hyperlink ref="D77" r:id="rId157" xr:uid="{4CB03F2D-F84B-46D5-9997-61FB45C22EBA}"/>
+    <hyperlink ref="E77" r:id="rId158" xr:uid="{893003A5-2754-44C5-951E-23AA3148D9CF}"/>
+    <hyperlink ref="C78" r:id="rId159" xr:uid="{0D4DE4EB-96BB-4B69-8FA3-F43BEB7E5F2A}"/>
+    <hyperlink ref="D78" r:id="rId160" xr:uid="{41E90F4B-8C73-4135-8DBE-004486E4A55C}"/>
+    <hyperlink ref="E78" r:id="rId161" xr:uid="{4D4BC485-CA6F-4CA5-AA2A-9883B13032A9}"/>
+    <hyperlink ref="C79" r:id="rId162" xr:uid="{6F2967DF-35FB-49D0-B0AD-E66459765EBD}"/>
+    <hyperlink ref="D79" r:id="rId163" xr:uid="{9EE7311F-7B58-4EAD-AB63-FD206A4AFBD0}"/>
+    <hyperlink ref="E79" r:id="rId164" xr:uid="{BBF08E3C-16E6-4D6B-B494-5D103F481FF2}"/>
+    <hyperlink ref="F79" r:id="rId165" xr:uid="{8BF537D6-FD4C-4823-B714-1C3F400ABD7C}"/>
+    <hyperlink ref="G79" r:id="rId166" xr:uid="{A2BAD26F-7A1A-4885-9E79-8150C079A858}"/>
+    <hyperlink ref="C81" r:id="rId167" xr:uid="{F0AED0E5-9680-4806-9685-A7197F6440C3}"/>
+    <hyperlink ref="D81" r:id="rId168" xr:uid="{9200D390-1A77-4015-8974-C66ECD9EE1E7}"/>
+    <hyperlink ref="E81" r:id="rId169" xr:uid="{3C1EE1FC-7AC6-441A-93B7-862D8987FA24}"/>
+    <hyperlink ref="C83" r:id="rId170" xr:uid="{0510283B-6E24-4632-A77D-E90716F00A5C}"/>
+    <hyperlink ref="D83" r:id="rId171" xr:uid="{C347BBCC-959F-40C3-944D-7088F2A33761}"/>
+    <hyperlink ref="E83" r:id="rId172" xr:uid="{AD83E7D8-DD73-4755-98A6-CFA1C79AA9B5}"/>
+    <hyperlink ref="F83" r:id="rId173" xr:uid="{E5CE158F-E533-4D6E-A35F-B99AED33D51B}"/>
+    <hyperlink ref="G83" r:id="rId174" xr:uid="{A3CE0D0C-ABD9-4CD4-814C-4A5CFACB4F5D}"/>
+    <hyperlink ref="H83" r:id="rId175" xr:uid="{E9036406-2FCF-4B31-BA73-367973484DD4}"/>
+    <hyperlink ref="I83" r:id="rId176" xr:uid="{85911482-041F-4B83-A487-99E4FA3188DF}"/>
+    <hyperlink ref="C106" r:id="rId177" xr:uid="{C65B7699-3E12-4CDF-85BB-69417685D756}"/>
+    <hyperlink ref="D106" r:id="rId178" xr:uid="{F1C7F7DB-56C3-4F1E-96DE-9078D2A2998F}"/>
+    <hyperlink ref="E106" r:id="rId179" xr:uid="{18D5ED50-8291-4C77-B839-A4DC0A7BC71F}"/>
+    <hyperlink ref="C107" r:id="rId180" xr:uid="{8E53F79D-7396-4D40-BB5B-1DD41C483292}"/>
+    <hyperlink ref="D107" r:id="rId181" xr:uid="{7ECAAFC5-C631-4170-90AB-9F550D6F6FDC}"/>
+    <hyperlink ref="E107" r:id="rId182" xr:uid="{1930E9BD-3781-441E-83AA-0001F5A19555}"/>
+    <hyperlink ref="C104" r:id="rId183" xr:uid="{19245866-064B-4E15-A8C0-91E75874D58F}"/>
+    <hyperlink ref="D104" r:id="rId184" xr:uid="{A10A5277-5403-4580-8F54-6653478BC80C}"/>
+    <hyperlink ref="E104" r:id="rId185" xr:uid="{4DB1F180-6803-4D48-88BA-3D275EAB492C}"/>
+    <hyperlink ref="F104" r:id="rId186" xr:uid="{02F69438-C795-4F8C-AF8D-1639C3A4A959}"/>
+    <hyperlink ref="G104" r:id="rId187" xr:uid="{4F0EBE4C-EFCE-4AE9-958E-DC3CC3E38FBE}"/>
+    <hyperlink ref="C85" r:id="rId188" xr:uid="{4972E1E0-F156-4EE7-9E4B-D386D5C6C4DC}"/>
+    <hyperlink ref="D85" r:id="rId189" xr:uid="{DABF61C2-6FEB-4C10-80B2-8C32FAC6AA7D}"/>
+    <hyperlink ref="E85" r:id="rId190" xr:uid="{948A55D6-FF1C-4AFB-B0F5-4F0FB43FF818}"/>
+    <hyperlink ref="C86" r:id="rId191" xr:uid="{DF914E2F-3616-4E22-A932-A5B8A4F80410}"/>
+    <hyperlink ref="D86" r:id="rId192" xr:uid="{72012A7F-0917-4335-8050-E281D4E606D9}"/>
+    <hyperlink ref="E86" r:id="rId193" xr:uid="{6FDA9ECF-4D43-4755-9719-E84F8BAA8FBB}"/>
+    <hyperlink ref="F86" r:id="rId194" xr:uid="{B9EFC835-43B8-4A68-939D-9194FFE37674}"/>
+    <hyperlink ref="C87" r:id="rId195" xr:uid="{F16020EC-B69F-4134-A935-20125711F993}"/>
+    <hyperlink ref="D87" r:id="rId196" xr:uid="{10BC8553-9C48-4A58-AF73-CDBEE7304BBB}"/>
+    <hyperlink ref="E87" r:id="rId197" xr:uid="{5E80F59C-E87D-4509-A523-41759CF8806D}"/>
+    <hyperlink ref="C88" r:id="rId198" xr:uid="{69DD1ED0-46B3-46C0-BF3B-D39754D8CFD8}"/>
+    <hyperlink ref="D88" r:id="rId199" xr:uid="{7B133A3E-9CAE-4B76-A937-F4CC3BBFB173}"/>
+    <hyperlink ref="C89" r:id="rId200" xr:uid="{38F66C08-17E9-449D-A763-073B3D454C0D}"/>
+    <hyperlink ref="D89" r:id="rId201" xr:uid="{E3856714-41FA-4D49-A761-900CF7F3ACD3}"/>
+    <hyperlink ref="E89" r:id="rId202" xr:uid="{E158DAC2-6C26-4CFE-81FA-77663D488B60}"/>
+    <hyperlink ref="C90" r:id="rId203" xr:uid="{B8E47F09-3C5B-477D-B880-84092C268966}"/>
+    <hyperlink ref="D90" r:id="rId204" xr:uid="{D9E90197-4397-4DDF-88C1-FE0F6E4FFCC1}"/>
+    <hyperlink ref="E90" r:id="rId205" xr:uid="{E255B854-E556-4482-8AC8-502154DEE482}"/>
+    <hyperlink ref="C91" r:id="rId206" xr:uid="{20DB4E75-5C8A-4773-942B-FB97A995F26B}"/>
+    <hyperlink ref="D91" r:id="rId207" xr:uid="{C13D5F50-E0AD-41F2-A98E-67A3FFE4B25D}"/>
+    <hyperlink ref="E91" r:id="rId208" xr:uid="{6407349A-FB3D-4323-9E1F-77BD9FD58B1F}"/>
+    <hyperlink ref="F91" r:id="rId209" xr:uid="{84C9FDFB-F1DE-47AD-9BBB-5106A2733F82}"/>
+    <hyperlink ref="C92" r:id="rId210" xr:uid="{2E58CAF4-0CA7-4CE8-B434-B5CCEA7E290B}"/>
+    <hyperlink ref="D92" r:id="rId211" xr:uid="{8C720CA0-7F4F-487E-A793-AD2F7AC3DBD8}"/>
+    <hyperlink ref="E92" r:id="rId212" xr:uid="{D08764F7-8105-4AD3-8E99-48679CE846C6}"/>
+    <hyperlink ref="C94" r:id="rId213" xr:uid="{3C3739A4-C2FD-4B68-8E22-D22BE9634D07}"/>
+    <hyperlink ref="D94" r:id="rId214" xr:uid="{B9090642-978C-4AFC-ABD6-7F4373DD8489}"/>
+    <hyperlink ref="E94" r:id="rId215" xr:uid="{8CC73B22-5F4E-42CE-8714-B171E997A8D3}"/>
+    <hyperlink ref="C95" r:id="rId216" xr:uid="{804380DF-0BDF-41A8-B788-27B131E79070}"/>
+    <hyperlink ref="D95" r:id="rId217" xr:uid="{6C7D4D22-F3D2-4F46-8528-046C89845213}"/>
+    <hyperlink ref="E95" r:id="rId218" xr:uid="{28D113D0-B8B0-46E1-A25E-E0DE5A6581D4}"/>
+    <hyperlink ref="C96" r:id="rId219" xr:uid="{DDE726A0-6FF6-484B-AD28-D77FA86787C4}"/>
+    <hyperlink ref="D96" r:id="rId220" xr:uid="{21F47FD3-5562-423F-8142-AA2BAFE4B5C5}"/>
+    <hyperlink ref="E96" r:id="rId221" xr:uid="{932B19CC-12B2-4D86-B53D-826B4A59F674}"/>
+    <hyperlink ref="C97" r:id="rId222" xr:uid="{546FCE36-C2F9-4159-8E37-222BDDF79C76}"/>
+    <hyperlink ref="D97" r:id="rId223" xr:uid="{5CB21B09-42DE-488E-89E4-A56E67BBABD0}"/>
+    <hyperlink ref="E97" r:id="rId224" xr:uid="{9E508F18-4C1A-44A3-8D9B-A633BAA2B2A6}"/>
+    <hyperlink ref="C99" r:id="rId225" xr:uid="{022F3594-67B0-48FB-8186-85EBA9D76C74}"/>
+    <hyperlink ref="D99" r:id="rId226" xr:uid="{FDFC8794-2516-41C8-9D59-E2DB5CD7CDAF}"/>
+    <hyperlink ref="E99" r:id="rId227" xr:uid="{9DF3007B-54A0-4AB6-AF85-6FA94DFCC2A9}"/>
+    <hyperlink ref="C100" r:id="rId228" xr:uid="{93D26EC4-112D-4DAA-8A9E-1CBF31906F0E}"/>
+    <hyperlink ref="D100" r:id="rId229" xr:uid="{A013D31E-5998-4821-8CD5-8C3D0480F770}"/>
+    <hyperlink ref="E100" r:id="rId230" xr:uid="{EC9AE497-197F-4D67-B69F-85FA1DD083A4}"/>
+    <hyperlink ref="C101" r:id="rId231" xr:uid="{4F741949-FC8D-4367-80FC-BEAD3E4FA57F}"/>
+    <hyperlink ref="D101" r:id="rId232" xr:uid="{B1966106-B1C0-4FA2-AEFB-2FACCACCCDBF}"/>
+    <hyperlink ref="C102" r:id="rId233" xr:uid="{826BC858-3FF7-49D1-8233-B140A34C60A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId126"/>
+  <pageSetup orientation="portrait" r:id="rId234"/>
 </worksheet>
 </file>
--- a/Index.xlsx
+++ b/Index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\uwecMuseum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6AD1E5-0F36-4A0B-9A15-5DAED5D9DEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492322F7-7D6A-4E68-80FA-7C299EB54B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{73CDAB4E-9CF5-4FFB-9A2A-33804757E7C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="193">
   <si>
     <t>0039</t>
   </si>
@@ -600,6 +600,21 @@
   </si>
   <si>
     <t>Document 3</t>
+  </si>
+  <si>
+    <t>Orry Walz                     Ifugao Coorrespondance</t>
+  </si>
+  <si>
+    <t>Box 1 Folder11</t>
+  </si>
+  <si>
+    <t>Box 1 Folder13</t>
+  </si>
+  <si>
+    <t>Box 1 Folder12</t>
+  </si>
+  <si>
+    <t>Box 1 Folder10</t>
   </si>
 </sst>
 </file>
@@ -684,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -702,11 +717,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1022,16 +1042,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E320F0C-AA5B-48B7-AFAF-C1546C0DD64F}">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -1063,37 +1083,41 @@
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4" t="s">
-        <v>183</v>
-      </c>
+    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1104,90 +1128,82 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>184</v>
@@ -1205,7 +1221,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1221,11 +1237,11 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>47</v>
+      <c r="A11" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>184</v>
@@ -1233,41 +1249,37 @@
       <c r="D11" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="E11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>184</v>
@@ -1275,21 +1287,19 @@
       <c r="D13" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>184</v>
@@ -1305,13 +1315,13 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>184</v>
@@ -1327,13 +1337,13 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>184</v>
@@ -1349,13 +1359,13 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>184</v>
@@ -1371,27 +1381,35 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>184</v>
@@ -1407,35 +1425,27 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="B21" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>184</v>
@@ -1451,27 +1461,35 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="A23" s="12"/>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>184</v>
@@ -1487,35 +1505,27 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>184</v>
@@ -1526,20 +1536,18 @@
       <c r="E25" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="5" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>184</v>
@@ -1547,79 +1555,79 @@
       <c r="D26" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>184</v>
@@ -1637,13 +1645,13 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>184</v>
@@ -1659,27 +1667,37 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="5"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="A33" s="12"/>
       <c r="B33" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>184</v>
@@ -1695,35 +1713,27 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="B35" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>184</v>
@@ -1734,34 +1744,40 @@
       <c r="E35" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="5"/>
+      <c r="J36" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="A37" s="12"/>
       <c r="B37" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>184</v>
@@ -1772,40 +1788,34 @@
       <c r="E37" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="F37" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
       <c r="J37" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="A39" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="B39" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>184</v>
@@ -1821,13 +1831,13 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>184</v>
@@ -1838,70 +1848,78 @@
       <c r="E40" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
+      <c r="J41" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>64</v>
-      </c>
+      <c r="A42" s="12"/>
       <c r="B42" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="D42" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
       <c r="J42" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>184</v>
@@ -1913,13 +1931,13 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>184</v>
@@ -1930,12 +1948,14 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>184</v>
@@ -1946,12 +1966,18 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="9"/>
+      <c r="B47" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -1961,55 +1987,39 @@
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>143</v>
-      </c>
+      <c r="A48" s="5"/>
       <c r="B48" s="5" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="5" t="s">
-        <v>150</v>
-      </c>
+      <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+      <c r="A50" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="B50" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>184</v>
@@ -2017,21 +2027,21 @@
       <c r="D50" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>181</v>
+      <c r="E50" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>184</v>
@@ -2047,13 +2057,13 @@
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>184</v>
@@ -2061,35 +2071,43 @@
       <c r="D52" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>184</v>
+      <c r="E52" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
       <c r="J52" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="5"/>
+      <c r="J53" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>154</v>
-      </c>
+      <c r="A54" s="12"/>
       <c r="B54" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>184</v>
@@ -2097,105 +2115,107 @@
       <c r="D54" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="A56" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="5"/>
+      <c r="J56" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>171</v>
-      </c>
+      <c r="A57" s="12"/>
       <c r="B57" s="5" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="5" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A58" s="3"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="A59" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="5"/>
+      <c r="J59" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>159</v>
-      </c>
+      <c r="A60" s="12"/>
       <c r="B60" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>184</v>
@@ -2203,55 +2223,55 @@
       <c r="D60" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="5" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="A62" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="5"/>
+      <c r="J62" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="A63" s="12"/>
       <c r="B63" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>184</v>
@@ -2259,20 +2279,18 @@
       <c r="D63" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -2283,11 +2301,11 @@
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>116</v>
+      <c r="A65" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>184</v>
@@ -2303,35 +2321,27 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="5" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
-      <c r="B66" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
+      <c r="A67" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="B67" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>184</v>
@@ -2347,13 +2357,13 @@
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>184</v>
@@ -2369,13 +2379,13 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>184</v>
@@ -2383,33 +2393,43 @@
       <c r="D69" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E69" s="9"/>
+      <c r="E69" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="5"/>
+      <c r="J70" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A71" s="12"/>
       <c r="B71" s="5" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>184</v>
@@ -2417,15 +2437,13 @@
       <c r="D71" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="E71" s="9"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="5" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2441,11 +2459,11 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>74</v>
+      <c r="A73" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>184</v>
@@ -2461,7 +2479,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -2477,11 +2495,11 @@
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>94</v>
+      <c r="A75" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>184</v>
@@ -2497,37 +2515,27 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="5"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+      <c r="A77" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="B77" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>184</v>
@@ -2543,133 +2551,135 @@
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="5" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="5" t="s">
+      <c r="C80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="5" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
+      <c r="B81" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="5" t="s">
+      <c r="C81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="5" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+      <c r="B83" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="5" t="s">
+      <c r="C83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="5" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J83" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -2685,11 +2695,11 @@
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
-        <v>103</v>
+      <c r="A85" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>184</v>
@@ -2700,42 +2710,40 @@
       <c r="E85" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="F85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="J85" s="5" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="J86" s="5"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+      <c r="A87" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="B87" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>184</v>
@@ -2751,33 +2759,37 @@
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
       <c r="J88" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>184</v>
@@ -2793,21 +2805,18 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
       <c r="J89" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E90" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>184</v>
       </c>
       <c r="F90" s="9"/>
@@ -2815,13 +2824,13 @@
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>184</v>
@@ -2832,20 +2841,18 @@
       <c r="E91" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="F91" s="9"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>184</v>
@@ -2861,27 +2868,37 @@
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
       <c r="J92" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="5"/>
+      <c r="J93" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="A94" s="12"/>
       <c r="B94" s="5" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>184</v>
@@ -2897,35 +2914,27 @@
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="5" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="J95" s="5"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
+      <c r="A96" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="B96" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>184</v>
@@ -2941,13 +2950,13 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
       <c r="J96" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>184</v>
@@ -2963,24 +2972,35 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
       <c r="J97" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="6"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="5"/>
+      <c r="J98" s="5" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
-        <v>139</v>
-      </c>
+      <c r="A99" s="12"/>
       <c r="B99" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>184</v>
@@ -2996,35 +3016,24 @@
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
       <c r="J99" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A100" s="5"/>
+      <c r="B100" s="6"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
-      <c r="J100" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
+      <c r="A101" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="B101" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>184</v>
@@ -3032,76 +3041,80 @@
       <c r="D101" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E101" s="9"/>
+      <c r="E101" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
       <c r="J101" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
+      <c r="A102" s="12"/>
       <c r="B102" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
       <c r="J102" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="5"/>
+      <c r="J103" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="A104" s="12"/>
       <c r="B104" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>184</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
       <c r="J104" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -3112,11 +3125,11 @@
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>77</v>
+      <c r="A106" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>184</v>
@@ -3127,298 +3140,342 @@
       <c r="E106" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="F106" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
       <c r="J106" s="5" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>184</v>
-      </c>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="5" t="s">
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+      <c r="B109" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>181</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A85:A92"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A87:A94"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="A101:A104"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="see Packing Letter" xr:uid="{D01C6424-592D-4F4A-88C5-D71A0889B6EB}"/>
+    <hyperlink ref="J5" r:id="rId1" display="see Packing Letter" xr:uid="{D01C6424-592D-4F4A-88C5-D71A0889B6EB}"/>
     <hyperlink ref="C1" r:id="rId2" xr:uid="{38857C28-2FA8-4378-8010-55002E7F1F6B}"/>
     <hyperlink ref="D1" r:id="rId3" xr:uid="{C068A2B1-4A9C-4F41-B0C7-AB95D7D3A83F}"/>
     <hyperlink ref="E1" r:id="rId4" xr:uid="{3E48D4C4-D0C0-481A-85E6-4976108753B4}"/>
-    <hyperlink ref="A3" r:id="rId5" xr:uid="{78D410EE-6A4C-4EDE-9EF1-CBF385CA21C8}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{034603C8-1A31-46AB-8822-55ED56A6B36B}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{EA5A6136-F995-457F-B94E-A583A51FCF48}"/>
-    <hyperlink ref="E6" r:id="rId8" xr:uid="{491E12F5-31C8-4742-B2D1-4EC59D400547}"/>
-    <hyperlink ref="C7" r:id="rId9" xr:uid="{96079681-AF5F-4074-B69B-B0BF265D4478}"/>
-    <hyperlink ref="D7" r:id="rId10" xr:uid="{2DA985A6-A0DF-49C5-B294-1BDCAB17F176}"/>
-    <hyperlink ref="E7" r:id="rId11" xr:uid="{C8C6D6DE-4C5D-4054-B972-AAA4A9B9BB40}"/>
-    <hyperlink ref="F7" r:id="rId12" xr:uid="{0422CBFF-C2CD-4A99-90CE-87430A0BC20F}"/>
-    <hyperlink ref="C9" r:id="rId13" xr:uid="{06BD7217-69BA-4C76-99B1-F4DF029E7FB5}"/>
-    <hyperlink ref="D9" r:id="rId14" xr:uid="{1961E1E7-783F-4F65-BB85-881CC786BBA0}"/>
-    <hyperlink ref="E9" r:id="rId15" xr:uid="{6ED15268-6821-4E2E-8D6D-F687F321EEE6}"/>
-    <hyperlink ref="F9" r:id="rId16" xr:uid="{E8CAE9BD-C463-4E1A-A528-970E872BCABA}"/>
-    <hyperlink ref="C11" r:id="rId17" xr:uid="{EA55B2F0-AC08-499D-8611-9DA7E23E831F}"/>
-    <hyperlink ref="D11" r:id="rId18" xr:uid="{F9CE6FDA-62A0-4F48-9E38-543FE680F3C6}"/>
-    <hyperlink ref="C12" r:id="rId19" xr:uid="{0A7214D3-D239-44BD-8F7F-8499A4FFC93B}"/>
-    <hyperlink ref="D12" r:id="rId20" xr:uid="{5C4B7036-C725-4BAB-8F5A-E12346C28084}"/>
-    <hyperlink ref="E12" r:id="rId21" xr:uid="{56553E4F-94F8-42C8-B940-53B14A1C6518}"/>
-    <hyperlink ref="C13" r:id="rId22" xr:uid="{77CA5813-A922-46F6-8FA9-3727ABE527D8}"/>
-    <hyperlink ref="D13" r:id="rId23" xr:uid="{F24A30CC-01B0-4ACF-A348-30ABA8289B4C}"/>
-    <hyperlink ref="E13" r:id="rId24" xr:uid="{815B465B-69EE-40E1-BD93-DEE3E8C0CD93}"/>
-    <hyperlink ref="C14" r:id="rId25" xr:uid="{F016EDA6-143C-4058-AC9E-C5B43AE04211}"/>
-    <hyperlink ref="D14" r:id="rId26" xr:uid="{9A392A6A-A6A4-490B-AB0B-6BCE158A2343}"/>
-    <hyperlink ref="E14" r:id="rId27" xr:uid="{8F3BC34F-13CD-4F54-AF1E-46D3B28EE40E}"/>
-    <hyperlink ref="C15" r:id="rId28" xr:uid="{0788BC6C-51D1-40B5-A55B-B68343B69E0A}"/>
-    <hyperlink ref="D15" r:id="rId29" xr:uid="{4D8CACA9-23B6-4C43-A9AB-74BAB773D638}"/>
-    <hyperlink ref="E15" r:id="rId30" xr:uid="{1AFE6940-79DA-44C6-884B-CF39550A14F1}"/>
-    <hyperlink ref="C16" r:id="rId31" xr:uid="{BEB39C44-8B16-49CF-8269-58379B6FE4E6}"/>
-    <hyperlink ref="D16" r:id="rId32" xr:uid="{1AB24727-44CC-4E69-9CC9-1528F913D19B}"/>
-    <hyperlink ref="E16" r:id="rId33" xr:uid="{67FD66A9-027F-4BC6-AD50-76AB523AD248}"/>
-    <hyperlink ref="C17" r:id="rId34" xr:uid="{6F1EC492-EFE7-481C-B3C8-B261D39FA39C}"/>
-    <hyperlink ref="D17" r:id="rId35" xr:uid="{27899BE2-2CD5-4B1F-83F8-1EF29D950F24}"/>
-    <hyperlink ref="E17" r:id="rId36" xr:uid="{26F80BB9-6840-4250-80EE-8D2D365626C4}"/>
-    <hyperlink ref="C19" r:id="rId37" xr:uid="{5926C285-A504-4A3B-8328-6536548F31F8}"/>
-    <hyperlink ref="D19" r:id="rId38" xr:uid="{B394AB56-9E68-433D-976D-962D3FB20CFC}"/>
-    <hyperlink ref="E19" r:id="rId39" xr:uid="{A96FEA2A-DDDD-4545-8A08-EE82995393D2}"/>
-    <hyperlink ref="C20" r:id="rId40" xr:uid="{74C3C817-2C43-479E-903A-1DDE285475A1}"/>
-    <hyperlink ref="D20" r:id="rId41" xr:uid="{59826A58-E6F6-4439-92D2-09F6861B8BC8}"/>
-    <hyperlink ref="E20" r:id="rId42" xr:uid="{246EF5BE-DA4D-40D1-BB25-724B01D8AC3A}"/>
-    <hyperlink ref="C21" r:id="rId43" xr:uid="{6E6E80BD-9594-4313-8752-3C2868506050}"/>
-    <hyperlink ref="D21" r:id="rId44" xr:uid="{360880A4-2830-4637-9BEC-CD767F7F6FF2}"/>
-    <hyperlink ref="E21" r:id="rId45" xr:uid="{AE0353C3-4841-4529-9D7A-C0474876CB78}"/>
-    <hyperlink ref="C23" r:id="rId46" xr:uid="{E8B052C6-8258-4B36-AC5F-6F2236B15338}"/>
-    <hyperlink ref="D23" r:id="rId47" xr:uid="{E269671D-8413-4EC1-8826-F729F1663BC5}"/>
-    <hyperlink ref="E23" r:id="rId48" xr:uid="{BC2E79B5-0BF1-4D18-9B37-95F4465D3842}"/>
-    <hyperlink ref="C24" r:id="rId49" xr:uid="{D4308908-43C7-4C0C-BBCE-1C6F9BFFB990}"/>
-    <hyperlink ref="D24" r:id="rId50" xr:uid="{37F8F6FF-96F9-4233-8232-F16B977EB309}"/>
-    <hyperlink ref="E24" r:id="rId51" xr:uid="{7FFC740A-F281-4846-B6F4-CA6B6EF242CE}"/>
-    <hyperlink ref="C25" r:id="rId52" xr:uid="{1DC549D5-7DD8-4F04-BB8B-AC0E24FB8DB9}"/>
-    <hyperlink ref="D25" r:id="rId53" xr:uid="{98CEB403-60ED-4A04-A512-AA987F9F3AD9}"/>
-    <hyperlink ref="E25" r:id="rId54" xr:uid="{A229D252-FC89-4B77-8CF6-ADD8F10CD767}"/>
-    <hyperlink ref="F25" r:id="rId55" xr:uid="{D53DB0BC-B08E-4DE4-9512-825EBD92301A}"/>
-    <hyperlink ref="C26" r:id="rId56" xr:uid="{9FB8B2F5-F368-48D6-A831-FD131F1B2624}"/>
-    <hyperlink ref="D26" r:id="rId57" xr:uid="{AB22249D-9EB0-491C-96FD-0FCAC82B9774}"/>
-    <hyperlink ref="C28" r:id="rId58" xr:uid="{9B1EBCD9-9451-41DD-BC46-D050C1B9CB6C}"/>
-    <hyperlink ref="D28" r:id="rId59" xr:uid="{6853FA00-5145-4AFE-A499-B169DD248253}"/>
-    <hyperlink ref="E28" r:id="rId60" xr:uid="{46B76089-18AB-4128-BD98-CFD4AF95516A}"/>
-    <hyperlink ref="F28" r:id="rId61" xr:uid="{F7595784-40CD-4BC0-A4F6-B6F2F858BCB4}"/>
-    <hyperlink ref="C29" r:id="rId62" xr:uid="{42D696CE-85C8-42ED-87B6-5F97B4DC34C0}"/>
-    <hyperlink ref="D29" r:id="rId63" xr:uid="{A39F7EC4-DBB9-43E4-AED6-8CBEB001364E}"/>
-    <hyperlink ref="E29" r:id="rId64" xr:uid="{95E1E396-ABF7-4EF4-A107-8D5764919BDD}"/>
-    <hyperlink ref="C30" r:id="rId65" xr:uid="{9B69F9EF-35D2-4DDC-8302-0F760E29C4D9}"/>
-    <hyperlink ref="D30" r:id="rId66" xr:uid="{19C3222C-8D36-4504-BC4C-D8C285F84B81}"/>
-    <hyperlink ref="E30" r:id="rId67" xr:uid="{50E402F7-F5FE-4C12-89D2-F801EAB57178}"/>
-    <hyperlink ref="F30" r:id="rId68" xr:uid="{F4F4316C-37C7-4C7A-A491-75B1830AEF6D}"/>
-    <hyperlink ref="C31" r:id="rId69" xr:uid="{842DA486-2E2C-4606-B099-596C8302E1EE}"/>
-    <hyperlink ref="D31" r:id="rId70" xr:uid="{5D1990E3-781C-4EF6-975C-9EDE4135FD9B}"/>
-    <hyperlink ref="E31" r:id="rId71" xr:uid="{3B6F0E53-9E06-4CDF-8A32-0DF368F27D32}"/>
-    <hyperlink ref="C42" r:id="rId72" xr:uid="{E8D05010-0C1C-4B00-988B-DDE66E2DC7D4}"/>
-    <hyperlink ref="C43" r:id="rId73" xr:uid="{37FF811E-0F9C-4F58-85D7-D19683993FB5}"/>
-    <hyperlink ref="C44" r:id="rId74" xr:uid="{F330E42F-9413-464E-BCD8-F4FCC803660B}"/>
-    <hyperlink ref="C45" r:id="rId75" xr:uid="{391E9DF8-D826-4145-A9A5-43D67915A2F7}"/>
-    <hyperlink ref="C46" r:id="rId76" xr:uid="{B15D954E-DE7E-45E4-A501-5DB25C698136}"/>
-    <hyperlink ref="C33" r:id="rId77" xr:uid="{D65F8A4B-54BC-4615-A8D6-BD39EAF52057}"/>
-    <hyperlink ref="D33" r:id="rId78" xr:uid="{F0C93DE2-92E4-40EF-B5F6-CAD1846C05FE}"/>
-    <hyperlink ref="E33" r:id="rId79" xr:uid="{2EDA09A4-88A8-4B1E-B940-933392D02791}"/>
-    <hyperlink ref="C34" r:id="rId80" xr:uid="{8C5552B0-DCA1-454B-8EE2-0DE99BCAD35E}"/>
-    <hyperlink ref="D34" r:id="rId81" xr:uid="{4405AB29-B2E8-4463-A093-C8C07BCDFE9A}"/>
-    <hyperlink ref="E34" r:id="rId82" xr:uid="{A2A54EAF-B035-4380-B246-3D77A102656C}"/>
-    <hyperlink ref="C35" r:id="rId83" xr:uid="{0B4344FD-176F-4AD6-8FCE-1CF81628E0A1}"/>
-    <hyperlink ref="D35" r:id="rId84" xr:uid="{BC8786D9-6D18-40D3-A6F8-C585F6819E1F}"/>
-    <hyperlink ref="E35" r:id="rId85" xr:uid="{34DDDB73-2E64-4423-91D2-FD11C97A3F0C}"/>
-    <hyperlink ref="F35" r:id="rId86" xr:uid="{46382DEC-8EA0-4DF0-875C-2DED37A3FED8}"/>
-    <hyperlink ref="C37" r:id="rId87" xr:uid="{B4EECBE4-3330-47DE-B095-26F1E10FA653}"/>
-    <hyperlink ref="D37" r:id="rId88" xr:uid="{7E5523B1-D637-41DD-9602-76D40C7CEC49}"/>
-    <hyperlink ref="E37" r:id="rId89" xr:uid="{02CFCA11-61E9-4BD8-BC36-C19E25F43F13}"/>
-    <hyperlink ref="C38" r:id="rId90" xr:uid="{0890567B-594E-4426-9A40-ECE135A603ED}"/>
-    <hyperlink ref="D38" r:id="rId91" xr:uid="{B8E8809A-2647-4775-B29A-F4AB7206FE61}"/>
-    <hyperlink ref="E38" r:id="rId92" xr:uid="{612289E3-E748-4A1F-99E1-6A72FB2C88D3}"/>
-    <hyperlink ref="C39" r:id="rId93" xr:uid="{BAE10024-A67E-4D9B-8C18-1A415408579D}"/>
-    <hyperlink ref="D39" r:id="rId94" xr:uid="{F71BA5AB-D4ED-4CBC-B6B5-8377CC95922B}"/>
-    <hyperlink ref="E39" r:id="rId95" xr:uid="{1AE0F8F6-C3CE-4D48-B58F-272797B79153}"/>
-    <hyperlink ref="C40" r:id="rId96" xr:uid="{696507CE-A9DA-49D3-AD6E-69478644B77A}"/>
-    <hyperlink ref="D40" r:id="rId97" xr:uid="{A2FC7527-B248-44D3-AD6C-6805A6321B99}"/>
-    <hyperlink ref="E40" r:id="rId98" xr:uid="{15AAB6FE-82D8-4DC3-9110-6AF58F885BEC}"/>
-    <hyperlink ref="F40" r:id="rId99" xr:uid="{0CE91C04-0FA7-4DDC-8B4E-73C10A0F25AD}"/>
-    <hyperlink ref="C48" r:id="rId100" xr:uid="{B1BC80AA-CBF8-40D5-A757-D70857F2B5A3}"/>
-    <hyperlink ref="D48" r:id="rId101" xr:uid="{E486D5A4-AE49-481E-8B37-122E2F079B91}"/>
-    <hyperlink ref="E48" r:id="rId102" xr:uid="{576FBB34-6062-4BFE-972C-BD2AC181AAD1}"/>
-    <hyperlink ref="C49" r:id="rId103" xr:uid="{562E0074-7317-4DD7-9852-E3AD66A302B2}"/>
-    <hyperlink ref="D49" r:id="rId104" xr:uid="{3C5BC570-5EB6-4A77-8C6B-7539F8AEC89B}"/>
-    <hyperlink ref="E49" r:id="rId105" xr:uid="{3A47D54D-5A67-494E-8D43-06CCC668BEA9}"/>
-    <hyperlink ref="C50" r:id="rId106" xr:uid="{41481858-77AF-4CD5-9676-6D1488A9EA91}"/>
-    <hyperlink ref="D50" r:id="rId107" xr:uid="{E0183FF7-0954-42D0-B959-174A497CE75F}"/>
-    <hyperlink ref="C51" r:id="rId108" xr:uid="{63153961-3BF5-435B-9A68-833A5791BB42}"/>
-    <hyperlink ref="D51" r:id="rId109" xr:uid="{BE058808-C9A2-4224-A136-14383E3A85B7}"/>
-    <hyperlink ref="E51" r:id="rId110" xr:uid="{8BD493C8-2EB0-4692-86A5-A2E4D9B1E17C}"/>
-    <hyperlink ref="C52" r:id="rId111" xr:uid="{7112678F-7691-415A-8579-2C0ACD7B733A}"/>
-    <hyperlink ref="D52" r:id="rId112" xr:uid="{DB53CC9E-F146-4C2F-A790-1C9665E49B6E}"/>
-    <hyperlink ref="E52" r:id="rId113" xr:uid="{6CB3814F-89C6-430C-91C7-3B44ED98C46F}"/>
-    <hyperlink ref="C54" r:id="rId114" xr:uid="{E95F8AAC-06E1-4FDC-8887-F02425CD56DD}"/>
-    <hyperlink ref="D54" r:id="rId115" xr:uid="{FCBA0577-1F27-49E3-9662-B3071CC6CC2F}"/>
-    <hyperlink ref="C55" r:id="rId116" xr:uid="{0F65D19A-34ED-41D4-8D97-52DD3192FB34}"/>
-    <hyperlink ref="C57" r:id="rId117" xr:uid="{2C02AAC1-9CE0-4ACE-9A8F-FA8FA343F3A9}"/>
-    <hyperlink ref="D57" r:id="rId118" xr:uid="{19978FF7-6AE5-48A3-8F05-8FFD4D57B34A}"/>
-    <hyperlink ref="C58" r:id="rId119" xr:uid="{F8307953-DC41-4075-B11F-BB3A46C62092}"/>
-    <hyperlink ref="D58" r:id="rId120" xr:uid="{D5145C24-AB4F-49AC-AF5C-451E57D6A407}"/>
-    <hyperlink ref="C60" r:id="rId121" xr:uid="{736323D1-3F1E-43EF-BBE2-2FD9FFB404AC}"/>
-    <hyperlink ref="D60" r:id="rId122" xr:uid="{2BF39744-4677-4353-8DD9-342453217EAF}"/>
-    <hyperlink ref="E60" r:id="rId123" xr:uid="{4EFEDEA4-7628-44FD-94E0-3968C813585F}"/>
-    <hyperlink ref="C61" r:id="rId124" xr:uid="{EF968489-6132-49E4-998C-004B43CAADF5}"/>
-    <hyperlink ref="D61" r:id="rId125" xr:uid="{CEE6161B-90A7-45E6-84D2-97196D54E536}"/>
-    <hyperlink ref="C63" r:id="rId126" xr:uid="{88D7FD81-63F9-420F-AA70-56231F777FC9}"/>
-    <hyperlink ref="D63" r:id="rId127" xr:uid="{F31E04A5-F062-4FCA-806E-EF1570952126}"/>
-    <hyperlink ref="E63" r:id="rId128" xr:uid="{83818758-3F1A-43AF-902C-CDDC9CC06F9C}"/>
-    <hyperlink ref="C71" r:id="rId129" xr:uid="{281F2AAB-AFA5-4A27-96FB-C54959959D33}"/>
-    <hyperlink ref="D71" r:id="rId130" xr:uid="{486B9224-FE41-4FD4-847B-1F0FB30F32D8}"/>
-    <hyperlink ref="E71" r:id="rId131" xr:uid="{40CAF029-3FCA-438C-A1A4-BE715652EC0E}"/>
-    <hyperlink ref="C65" r:id="rId132" xr:uid="{8440B7CF-2AB5-4EBE-9A6A-B4B9763DCD2E}"/>
-    <hyperlink ref="D65" r:id="rId133" xr:uid="{4B731B36-9B0C-4DF1-B0F0-6783FCE3B772}"/>
-    <hyperlink ref="E65" r:id="rId134" xr:uid="{01206B18-3AE3-44BD-A359-797833191A18}"/>
-    <hyperlink ref="C66" r:id="rId135" xr:uid="{FAF8CD8F-9B49-4ECA-BACE-CD30B2E5E1E7}"/>
-    <hyperlink ref="D66" r:id="rId136" xr:uid="{68666B5E-C459-4F93-AC56-16AACE869486}"/>
-    <hyperlink ref="E66" r:id="rId137" xr:uid="{7A61433D-2B57-457A-83D7-084359E33044}"/>
-    <hyperlink ref="C67" r:id="rId138" xr:uid="{30F81B27-5BB1-4903-93F1-C6FFB3CA63EA}"/>
-    <hyperlink ref="D67" r:id="rId139" xr:uid="{8BE04668-B298-4065-BB79-B0324CEE4601}"/>
-    <hyperlink ref="E67" r:id="rId140" xr:uid="{707B55B4-C4FE-4B4E-AAE3-634AABC034F8}"/>
-    <hyperlink ref="C68" r:id="rId141" xr:uid="{BE069D07-B2C8-4375-940E-4A2F5332A77C}"/>
-    <hyperlink ref="D68" r:id="rId142" xr:uid="{916D81CC-946E-4460-AD32-592DAE1BC7AF}"/>
-    <hyperlink ref="E68" r:id="rId143" xr:uid="{45596EC7-D9DD-4427-87CC-737C7F8E684F}"/>
-    <hyperlink ref="C69" r:id="rId144" xr:uid="{19A7AAAC-B6D4-4112-BAD4-7E8672149518}"/>
-    <hyperlink ref="D69" r:id="rId145" xr:uid="{3E2DB5FC-6F32-4BC4-8D31-AB89F782F0B7}"/>
-    <hyperlink ref="C73" r:id="rId146" xr:uid="{427E51F0-223B-4101-A50F-874A50CA9B42}"/>
-    <hyperlink ref="D73" r:id="rId147" xr:uid="{188BBF00-7973-4A8A-9268-5287A42E5C7A}"/>
-    <hyperlink ref="E73" r:id="rId148" xr:uid="{8EF5916B-9944-422E-8D7C-F0A9F0EDD864}"/>
-    <hyperlink ref="C75" r:id="rId149" xr:uid="{793271E8-A8A2-471B-B7F5-66DB5EBB830D}"/>
-    <hyperlink ref="D75" r:id="rId150" xr:uid="{47C0C4E6-15EA-44FB-92A0-B8196B219C09}"/>
-    <hyperlink ref="E75" r:id="rId151" xr:uid="{9CAB9A7C-8685-4B35-B980-AB314ADA3505}"/>
-    <hyperlink ref="C76" r:id="rId152" xr:uid="{713E8F28-F187-4C75-AF67-A67B676049BD}"/>
-    <hyperlink ref="D76" r:id="rId153" xr:uid="{330DFC75-39D1-4CF6-BE80-8C925D23805B}"/>
-    <hyperlink ref="E76" r:id="rId154" xr:uid="{D3E68D37-51D7-4B6E-9DEC-2F42B743B89A}"/>
-    <hyperlink ref="F76" r:id="rId155" xr:uid="{B3BE9A46-00E7-4CBE-9C86-3BC891E2F877}"/>
-    <hyperlink ref="C77" r:id="rId156" xr:uid="{E959C980-893B-458E-9FB1-ABAA2EB8DE63}"/>
-    <hyperlink ref="D77" r:id="rId157" xr:uid="{4CB03F2D-F84B-46D5-9997-61FB45C22EBA}"/>
-    <hyperlink ref="E77" r:id="rId158" xr:uid="{893003A5-2754-44C5-951E-23AA3148D9CF}"/>
-    <hyperlink ref="C78" r:id="rId159" xr:uid="{0D4DE4EB-96BB-4B69-8FA3-F43BEB7E5F2A}"/>
-    <hyperlink ref="D78" r:id="rId160" xr:uid="{41E90F4B-8C73-4135-8DBE-004486E4A55C}"/>
-    <hyperlink ref="E78" r:id="rId161" xr:uid="{4D4BC485-CA6F-4CA5-AA2A-9883B13032A9}"/>
-    <hyperlink ref="C79" r:id="rId162" xr:uid="{6F2967DF-35FB-49D0-B0AD-E66459765EBD}"/>
-    <hyperlink ref="D79" r:id="rId163" xr:uid="{9EE7311F-7B58-4EAD-AB63-FD206A4AFBD0}"/>
-    <hyperlink ref="E79" r:id="rId164" xr:uid="{BBF08E3C-16E6-4D6B-B494-5D103F481FF2}"/>
-    <hyperlink ref="F79" r:id="rId165" xr:uid="{8BF537D6-FD4C-4823-B714-1C3F400ABD7C}"/>
-    <hyperlink ref="G79" r:id="rId166" xr:uid="{A2BAD26F-7A1A-4885-9E79-8150C079A858}"/>
-    <hyperlink ref="C81" r:id="rId167" xr:uid="{F0AED0E5-9680-4806-9685-A7197F6440C3}"/>
-    <hyperlink ref="D81" r:id="rId168" xr:uid="{9200D390-1A77-4015-8974-C66ECD9EE1E7}"/>
-    <hyperlink ref="E81" r:id="rId169" xr:uid="{3C1EE1FC-7AC6-441A-93B7-862D8987FA24}"/>
-    <hyperlink ref="C83" r:id="rId170" xr:uid="{0510283B-6E24-4632-A77D-E90716F00A5C}"/>
-    <hyperlink ref="D83" r:id="rId171" xr:uid="{C347BBCC-959F-40C3-944D-7088F2A33761}"/>
-    <hyperlink ref="E83" r:id="rId172" xr:uid="{AD83E7D8-DD73-4755-98A6-CFA1C79AA9B5}"/>
-    <hyperlink ref="F83" r:id="rId173" xr:uid="{E5CE158F-E533-4D6E-A35F-B99AED33D51B}"/>
-    <hyperlink ref="G83" r:id="rId174" xr:uid="{A3CE0D0C-ABD9-4CD4-814C-4A5CFACB4F5D}"/>
-    <hyperlink ref="H83" r:id="rId175" xr:uid="{E9036406-2FCF-4B31-BA73-367973484DD4}"/>
-    <hyperlink ref="I83" r:id="rId176" xr:uid="{85911482-041F-4B83-A487-99E4FA3188DF}"/>
-    <hyperlink ref="C106" r:id="rId177" xr:uid="{C65B7699-3E12-4CDF-85BB-69417685D756}"/>
-    <hyperlink ref="D106" r:id="rId178" xr:uid="{F1C7F7DB-56C3-4F1E-96DE-9078D2A2998F}"/>
-    <hyperlink ref="E106" r:id="rId179" xr:uid="{18D5ED50-8291-4C77-B839-A4DC0A7BC71F}"/>
-    <hyperlink ref="C107" r:id="rId180" xr:uid="{8E53F79D-7396-4D40-BB5B-1DD41C483292}"/>
-    <hyperlink ref="D107" r:id="rId181" xr:uid="{7ECAAFC5-C631-4170-90AB-9F550D6F6FDC}"/>
-    <hyperlink ref="E107" r:id="rId182" xr:uid="{1930E9BD-3781-441E-83AA-0001F5A19555}"/>
-    <hyperlink ref="C104" r:id="rId183" xr:uid="{19245866-064B-4E15-A8C0-91E75874D58F}"/>
-    <hyperlink ref="D104" r:id="rId184" xr:uid="{A10A5277-5403-4580-8F54-6653478BC80C}"/>
-    <hyperlink ref="E104" r:id="rId185" xr:uid="{4DB1F180-6803-4D48-88BA-3D275EAB492C}"/>
-    <hyperlink ref="F104" r:id="rId186" xr:uid="{02F69438-C795-4F8C-AF8D-1639C3A4A959}"/>
-    <hyperlink ref="G104" r:id="rId187" xr:uid="{4F0EBE4C-EFCE-4AE9-958E-DC3CC3E38FBE}"/>
-    <hyperlink ref="C85" r:id="rId188" xr:uid="{4972E1E0-F156-4EE7-9E4B-D386D5C6C4DC}"/>
-    <hyperlink ref="D85" r:id="rId189" xr:uid="{DABF61C2-6FEB-4C10-80B2-8C32FAC6AA7D}"/>
-    <hyperlink ref="E85" r:id="rId190" xr:uid="{948A55D6-FF1C-4AFB-B0F5-4F0FB43FF818}"/>
-    <hyperlink ref="C86" r:id="rId191" xr:uid="{DF914E2F-3616-4E22-A932-A5B8A4F80410}"/>
-    <hyperlink ref="D86" r:id="rId192" xr:uid="{72012A7F-0917-4335-8050-E281D4E606D9}"/>
-    <hyperlink ref="E86" r:id="rId193" xr:uid="{6FDA9ECF-4D43-4755-9719-E84F8BAA8FBB}"/>
-    <hyperlink ref="F86" r:id="rId194" xr:uid="{B9EFC835-43B8-4A68-939D-9194FFE37674}"/>
-    <hyperlink ref="C87" r:id="rId195" xr:uid="{F16020EC-B69F-4134-A935-20125711F993}"/>
-    <hyperlink ref="D87" r:id="rId196" xr:uid="{10BC8553-9C48-4A58-AF73-CDBEE7304BBB}"/>
-    <hyperlink ref="E87" r:id="rId197" xr:uid="{5E80F59C-E87D-4509-A523-41759CF8806D}"/>
-    <hyperlink ref="C88" r:id="rId198" xr:uid="{69DD1ED0-46B3-46C0-BF3B-D39754D8CFD8}"/>
-    <hyperlink ref="D88" r:id="rId199" xr:uid="{7B133A3E-9CAE-4B76-A937-F4CC3BBFB173}"/>
-    <hyperlink ref="C89" r:id="rId200" xr:uid="{38F66C08-17E9-449D-A763-073B3D454C0D}"/>
-    <hyperlink ref="D89" r:id="rId201" xr:uid="{E3856714-41FA-4D49-A761-900CF7F3ACD3}"/>
-    <hyperlink ref="E89" r:id="rId202" xr:uid="{E158DAC2-6C26-4CFE-81FA-77663D488B60}"/>
-    <hyperlink ref="C90" r:id="rId203" xr:uid="{B8E47F09-3C5B-477D-B880-84092C268966}"/>
-    <hyperlink ref="D90" r:id="rId204" xr:uid="{D9E90197-4397-4DDF-88C1-FE0F6E4FFCC1}"/>
-    <hyperlink ref="E90" r:id="rId205" xr:uid="{E255B854-E556-4482-8AC8-502154DEE482}"/>
-    <hyperlink ref="C91" r:id="rId206" xr:uid="{20DB4E75-5C8A-4773-942B-FB97A995F26B}"/>
-    <hyperlink ref="D91" r:id="rId207" xr:uid="{C13D5F50-E0AD-41F2-A98E-67A3FFE4B25D}"/>
-    <hyperlink ref="E91" r:id="rId208" xr:uid="{6407349A-FB3D-4323-9E1F-77BD9FD58B1F}"/>
-    <hyperlink ref="F91" r:id="rId209" xr:uid="{84C9FDFB-F1DE-47AD-9BBB-5106A2733F82}"/>
-    <hyperlink ref="C92" r:id="rId210" xr:uid="{2E58CAF4-0CA7-4CE8-B434-B5CCEA7E290B}"/>
-    <hyperlink ref="D92" r:id="rId211" xr:uid="{8C720CA0-7F4F-487E-A793-AD2F7AC3DBD8}"/>
-    <hyperlink ref="E92" r:id="rId212" xr:uid="{D08764F7-8105-4AD3-8E99-48679CE846C6}"/>
-    <hyperlink ref="C94" r:id="rId213" xr:uid="{3C3739A4-C2FD-4B68-8E22-D22BE9634D07}"/>
-    <hyperlink ref="D94" r:id="rId214" xr:uid="{B9090642-978C-4AFC-ABD6-7F4373DD8489}"/>
-    <hyperlink ref="E94" r:id="rId215" xr:uid="{8CC73B22-5F4E-42CE-8714-B171E997A8D3}"/>
-    <hyperlink ref="C95" r:id="rId216" xr:uid="{804380DF-0BDF-41A8-B788-27B131E79070}"/>
-    <hyperlink ref="D95" r:id="rId217" xr:uid="{6C7D4D22-F3D2-4F46-8528-046C89845213}"/>
-    <hyperlink ref="E95" r:id="rId218" xr:uid="{28D113D0-B8B0-46E1-A25E-E0DE5A6581D4}"/>
-    <hyperlink ref="C96" r:id="rId219" xr:uid="{DDE726A0-6FF6-484B-AD28-D77FA86787C4}"/>
-    <hyperlink ref="D96" r:id="rId220" xr:uid="{21F47FD3-5562-423F-8142-AA2BAFE4B5C5}"/>
-    <hyperlink ref="E96" r:id="rId221" xr:uid="{932B19CC-12B2-4D86-B53D-826B4A59F674}"/>
-    <hyperlink ref="C97" r:id="rId222" xr:uid="{546FCE36-C2F9-4159-8E37-222BDDF79C76}"/>
-    <hyperlink ref="D97" r:id="rId223" xr:uid="{5CB21B09-42DE-488E-89E4-A56E67BBABD0}"/>
-    <hyperlink ref="E97" r:id="rId224" xr:uid="{9E508F18-4C1A-44A3-8D9B-A633BAA2B2A6}"/>
-    <hyperlink ref="C99" r:id="rId225" xr:uid="{022F3594-67B0-48FB-8186-85EBA9D76C74}"/>
-    <hyperlink ref="D99" r:id="rId226" xr:uid="{FDFC8794-2516-41C8-9D59-E2DB5CD7CDAF}"/>
-    <hyperlink ref="E99" r:id="rId227" xr:uid="{9DF3007B-54A0-4AB6-AF85-6FA94DFCC2A9}"/>
-    <hyperlink ref="C100" r:id="rId228" xr:uid="{93D26EC4-112D-4DAA-8A9E-1CBF31906F0E}"/>
-    <hyperlink ref="D100" r:id="rId229" xr:uid="{A013D31E-5998-4821-8CD5-8C3D0480F770}"/>
-    <hyperlink ref="E100" r:id="rId230" xr:uid="{EC9AE497-197F-4D67-B69F-85FA1DD083A4}"/>
-    <hyperlink ref="C101" r:id="rId231" xr:uid="{4F741949-FC8D-4367-80FC-BEAD3E4FA57F}"/>
-    <hyperlink ref="D101" r:id="rId232" xr:uid="{B1966106-B1C0-4FA2-AEFB-2FACCACCCDBF}"/>
-    <hyperlink ref="C102" r:id="rId233" xr:uid="{826BC858-3FF7-49D1-8233-B140A34C60A2}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{78D410EE-6A4C-4EDE-9EF1-CBF385CA21C8}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{034603C8-1A31-46AB-8822-55ED56A6B36B}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{EA5A6136-F995-457F-B94E-A583A51FCF48}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{491E12F5-31C8-4742-B2D1-4EC59D400547}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{96079681-AF5F-4074-B69B-B0BF265D4478}"/>
+    <hyperlink ref="D9" r:id="rId10" xr:uid="{2DA985A6-A0DF-49C5-B294-1BDCAB17F176}"/>
+    <hyperlink ref="E9" r:id="rId11" xr:uid="{C8C6D6DE-4C5D-4054-B972-AAA4A9B9BB40}"/>
+    <hyperlink ref="F9" r:id="rId12" xr:uid="{0422CBFF-C2CD-4A99-90CE-87430A0BC20F}"/>
+    <hyperlink ref="C11" r:id="rId13" xr:uid="{06BD7217-69BA-4C76-99B1-F4DF029E7FB5}"/>
+    <hyperlink ref="D11" r:id="rId14" xr:uid="{1961E1E7-783F-4F65-BB85-881CC786BBA0}"/>
+    <hyperlink ref="E11" r:id="rId15" xr:uid="{6ED15268-6821-4E2E-8D6D-F687F321EEE6}"/>
+    <hyperlink ref="F11" r:id="rId16" xr:uid="{E8CAE9BD-C463-4E1A-A528-970E872BCABA}"/>
+    <hyperlink ref="C13" r:id="rId17" xr:uid="{EA55B2F0-AC08-499D-8611-9DA7E23E831F}"/>
+    <hyperlink ref="D13" r:id="rId18" xr:uid="{F9CE6FDA-62A0-4F48-9E38-543FE680F3C6}"/>
+    <hyperlink ref="C14" r:id="rId19" xr:uid="{0A7214D3-D239-44BD-8F7F-8499A4FFC93B}"/>
+    <hyperlink ref="D14" r:id="rId20" xr:uid="{5C4B7036-C725-4BAB-8F5A-E12346C28084}"/>
+    <hyperlink ref="E14" r:id="rId21" xr:uid="{56553E4F-94F8-42C8-B940-53B14A1C6518}"/>
+    <hyperlink ref="C15" r:id="rId22" xr:uid="{77CA5813-A922-46F6-8FA9-3727ABE527D8}"/>
+    <hyperlink ref="D15" r:id="rId23" xr:uid="{F24A30CC-01B0-4ACF-A348-30ABA8289B4C}"/>
+    <hyperlink ref="E15" r:id="rId24" xr:uid="{815B465B-69EE-40E1-BD93-DEE3E8C0CD93}"/>
+    <hyperlink ref="C16" r:id="rId25" xr:uid="{F016EDA6-143C-4058-AC9E-C5B43AE04211}"/>
+    <hyperlink ref="D16" r:id="rId26" xr:uid="{9A392A6A-A6A4-490B-AB0B-6BCE158A2343}"/>
+    <hyperlink ref="E16" r:id="rId27" xr:uid="{8F3BC34F-13CD-4F54-AF1E-46D3B28EE40E}"/>
+    <hyperlink ref="C17" r:id="rId28" xr:uid="{0788BC6C-51D1-40B5-A55B-B68343B69E0A}"/>
+    <hyperlink ref="D17" r:id="rId29" xr:uid="{4D8CACA9-23B6-4C43-A9AB-74BAB773D638}"/>
+    <hyperlink ref="E17" r:id="rId30" xr:uid="{1AFE6940-79DA-44C6-884B-CF39550A14F1}"/>
+    <hyperlink ref="C18" r:id="rId31" xr:uid="{BEB39C44-8B16-49CF-8269-58379B6FE4E6}"/>
+    <hyperlink ref="D18" r:id="rId32" xr:uid="{1AB24727-44CC-4E69-9CC9-1528F913D19B}"/>
+    <hyperlink ref="E18" r:id="rId33" xr:uid="{67FD66A9-027F-4BC6-AD50-76AB523AD248}"/>
+    <hyperlink ref="C19" r:id="rId34" xr:uid="{6F1EC492-EFE7-481C-B3C8-B261D39FA39C}"/>
+    <hyperlink ref="D19" r:id="rId35" xr:uid="{27899BE2-2CD5-4B1F-83F8-1EF29D950F24}"/>
+    <hyperlink ref="E19" r:id="rId36" xr:uid="{26F80BB9-6840-4250-80EE-8D2D365626C4}"/>
+    <hyperlink ref="C21" r:id="rId37" xr:uid="{5926C285-A504-4A3B-8328-6536548F31F8}"/>
+    <hyperlink ref="D21" r:id="rId38" xr:uid="{B394AB56-9E68-433D-976D-962D3FB20CFC}"/>
+    <hyperlink ref="E21" r:id="rId39" xr:uid="{A96FEA2A-DDDD-4545-8A08-EE82995393D2}"/>
+    <hyperlink ref="C22" r:id="rId40" xr:uid="{74C3C817-2C43-479E-903A-1DDE285475A1}"/>
+    <hyperlink ref="D22" r:id="rId41" xr:uid="{59826A58-E6F6-4439-92D2-09F6861B8BC8}"/>
+    <hyperlink ref="E22" r:id="rId42" xr:uid="{246EF5BE-DA4D-40D1-BB25-724B01D8AC3A}"/>
+    <hyperlink ref="C23" r:id="rId43" xr:uid="{6E6E80BD-9594-4313-8752-3C2868506050}"/>
+    <hyperlink ref="D23" r:id="rId44" xr:uid="{360880A4-2830-4637-9BEC-CD767F7F6FF2}"/>
+    <hyperlink ref="E23" r:id="rId45" xr:uid="{AE0353C3-4841-4529-9D7A-C0474876CB78}"/>
+    <hyperlink ref="C25" r:id="rId46" xr:uid="{E8B052C6-8258-4B36-AC5F-6F2236B15338}"/>
+    <hyperlink ref="D25" r:id="rId47" xr:uid="{E269671D-8413-4EC1-8826-F729F1663BC5}"/>
+    <hyperlink ref="E25" r:id="rId48" xr:uid="{BC2E79B5-0BF1-4D18-9B37-95F4465D3842}"/>
+    <hyperlink ref="C26" r:id="rId49" xr:uid="{D4308908-43C7-4C0C-BBCE-1C6F9BFFB990}"/>
+    <hyperlink ref="D26" r:id="rId50" xr:uid="{37F8F6FF-96F9-4233-8232-F16B977EB309}"/>
+    <hyperlink ref="E26" r:id="rId51" xr:uid="{7FFC740A-F281-4846-B6F4-CA6B6EF242CE}"/>
+    <hyperlink ref="C27" r:id="rId52" xr:uid="{1DC549D5-7DD8-4F04-BB8B-AC0E24FB8DB9}"/>
+    <hyperlink ref="D27" r:id="rId53" xr:uid="{98CEB403-60ED-4A04-A512-AA987F9F3AD9}"/>
+    <hyperlink ref="E27" r:id="rId54" xr:uid="{A229D252-FC89-4B77-8CF6-ADD8F10CD767}"/>
+    <hyperlink ref="F27" r:id="rId55" xr:uid="{D53DB0BC-B08E-4DE4-9512-825EBD92301A}"/>
+    <hyperlink ref="C28" r:id="rId56" xr:uid="{9FB8B2F5-F368-48D6-A831-FD131F1B2624}"/>
+    <hyperlink ref="D28" r:id="rId57" xr:uid="{AB22249D-9EB0-491C-96FD-0FCAC82B9774}"/>
+    <hyperlink ref="C30" r:id="rId58" xr:uid="{9B1EBCD9-9451-41DD-BC46-D050C1B9CB6C}"/>
+    <hyperlink ref="D30" r:id="rId59" xr:uid="{6853FA00-5145-4AFE-A499-B169DD248253}"/>
+    <hyperlink ref="E30" r:id="rId60" xr:uid="{46B76089-18AB-4128-BD98-CFD4AF95516A}"/>
+    <hyperlink ref="F30" r:id="rId61" xr:uid="{F7595784-40CD-4BC0-A4F6-B6F2F858BCB4}"/>
+    <hyperlink ref="C31" r:id="rId62" xr:uid="{42D696CE-85C8-42ED-87B6-5F97B4DC34C0}"/>
+    <hyperlink ref="D31" r:id="rId63" xr:uid="{A39F7EC4-DBB9-43E4-AED6-8CBEB001364E}"/>
+    <hyperlink ref="E31" r:id="rId64" xr:uid="{95E1E396-ABF7-4EF4-A107-8D5764919BDD}"/>
+    <hyperlink ref="C32" r:id="rId65" xr:uid="{9B69F9EF-35D2-4DDC-8302-0F760E29C4D9}"/>
+    <hyperlink ref="D32" r:id="rId66" xr:uid="{19C3222C-8D36-4504-BC4C-D8C285F84B81}"/>
+    <hyperlink ref="E32" r:id="rId67" xr:uid="{50E402F7-F5FE-4C12-89D2-F801EAB57178}"/>
+    <hyperlink ref="F32" r:id="rId68" xr:uid="{F4F4316C-37C7-4C7A-A491-75B1830AEF6D}"/>
+    <hyperlink ref="C33" r:id="rId69" xr:uid="{842DA486-2E2C-4606-B099-596C8302E1EE}"/>
+    <hyperlink ref="D33" r:id="rId70" xr:uid="{5D1990E3-781C-4EF6-975C-9EDE4135FD9B}"/>
+    <hyperlink ref="E33" r:id="rId71" xr:uid="{3B6F0E53-9E06-4CDF-8A32-0DF368F27D32}"/>
+    <hyperlink ref="C44" r:id="rId72" xr:uid="{E8D05010-0C1C-4B00-988B-DDE66E2DC7D4}"/>
+    <hyperlink ref="C45" r:id="rId73" xr:uid="{37FF811E-0F9C-4F58-85D7-D19683993FB5}"/>
+    <hyperlink ref="C46" r:id="rId74" xr:uid="{F330E42F-9413-464E-BCD8-F4FCC803660B}"/>
+    <hyperlink ref="C47" r:id="rId75" xr:uid="{391E9DF8-D826-4145-A9A5-43D67915A2F7}"/>
+    <hyperlink ref="C48" r:id="rId76" xr:uid="{B15D954E-DE7E-45E4-A501-5DB25C698136}"/>
+    <hyperlink ref="C35" r:id="rId77" xr:uid="{D65F8A4B-54BC-4615-A8D6-BD39EAF52057}"/>
+    <hyperlink ref="D35" r:id="rId78" xr:uid="{F0C93DE2-92E4-40EF-B5F6-CAD1846C05FE}"/>
+    <hyperlink ref="E35" r:id="rId79" xr:uid="{2EDA09A4-88A8-4B1E-B940-933392D02791}"/>
+    <hyperlink ref="C36" r:id="rId80" xr:uid="{8C5552B0-DCA1-454B-8EE2-0DE99BCAD35E}"/>
+    <hyperlink ref="D36" r:id="rId81" xr:uid="{4405AB29-B2E8-4463-A093-C8C07BCDFE9A}"/>
+    <hyperlink ref="E36" r:id="rId82" xr:uid="{A2A54EAF-B035-4380-B246-3D77A102656C}"/>
+    <hyperlink ref="C37" r:id="rId83" xr:uid="{0B4344FD-176F-4AD6-8FCE-1CF81628E0A1}"/>
+    <hyperlink ref="D37" r:id="rId84" xr:uid="{BC8786D9-6D18-40D3-A6F8-C585F6819E1F}"/>
+    <hyperlink ref="E37" r:id="rId85" xr:uid="{34DDDB73-2E64-4423-91D2-FD11C97A3F0C}"/>
+    <hyperlink ref="F37" r:id="rId86" xr:uid="{46382DEC-8EA0-4DF0-875C-2DED37A3FED8}"/>
+    <hyperlink ref="C39" r:id="rId87" xr:uid="{B4EECBE4-3330-47DE-B095-26F1E10FA653}"/>
+    <hyperlink ref="D39" r:id="rId88" xr:uid="{7E5523B1-D637-41DD-9602-76D40C7CEC49}"/>
+    <hyperlink ref="E39" r:id="rId89" xr:uid="{02CFCA11-61E9-4BD8-BC36-C19E25F43F13}"/>
+    <hyperlink ref="C40" r:id="rId90" xr:uid="{0890567B-594E-4426-9A40-ECE135A603ED}"/>
+    <hyperlink ref="D40" r:id="rId91" xr:uid="{B8E8809A-2647-4775-B29A-F4AB7206FE61}"/>
+    <hyperlink ref="E40" r:id="rId92" xr:uid="{612289E3-E748-4A1F-99E1-6A72FB2C88D3}"/>
+    <hyperlink ref="C41" r:id="rId93" xr:uid="{BAE10024-A67E-4D9B-8C18-1A415408579D}"/>
+    <hyperlink ref="D41" r:id="rId94" xr:uid="{F71BA5AB-D4ED-4CBC-B6B5-8377CC95922B}"/>
+    <hyperlink ref="E41" r:id="rId95" xr:uid="{1AE0F8F6-C3CE-4D48-B58F-272797B79153}"/>
+    <hyperlink ref="C42" r:id="rId96" xr:uid="{696507CE-A9DA-49D3-AD6E-69478644B77A}"/>
+    <hyperlink ref="D42" r:id="rId97" xr:uid="{A2FC7527-B248-44D3-AD6C-6805A6321B99}"/>
+    <hyperlink ref="E42" r:id="rId98" xr:uid="{15AAB6FE-82D8-4DC3-9110-6AF58F885BEC}"/>
+    <hyperlink ref="F42" r:id="rId99" xr:uid="{0CE91C04-0FA7-4DDC-8B4E-73C10A0F25AD}"/>
+    <hyperlink ref="C50" r:id="rId100" xr:uid="{B1BC80AA-CBF8-40D5-A757-D70857F2B5A3}"/>
+    <hyperlink ref="D50" r:id="rId101" xr:uid="{E486D5A4-AE49-481E-8B37-122E2F079B91}"/>
+    <hyperlink ref="E50" r:id="rId102" xr:uid="{576FBB34-6062-4BFE-972C-BD2AC181AAD1}"/>
+    <hyperlink ref="C51" r:id="rId103" xr:uid="{562E0074-7317-4DD7-9852-E3AD66A302B2}"/>
+    <hyperlink ref="D51" r:id="rId104" xr:uid="{3C5BC570-5EB6-4A77-8C6B-7539F8AEC89B}"/>
+    <hyperlink ref="E51" r:id="rId105" xr:uid="{3A47D54D-5A67-494E-8D43-06CCC668BEA9}"/>
+    <hyperlink ref="C52" r:id="rId106" xr:uid="{41481858-77AF-4CD5-9676-6D1488A9EA91}"/>
+    <hyperlink ref="D52" r:id="rId107" xr:uid="{E0183FF7-0954-42D0-B959-174A497CE75F}"/>
+    <hyperlink ref="C53" r:id="rId108" xr:uid="{63153961-3BF5-435B-9A68-833A5791BB42}"/>
+    <hyperlink ref="D53" r:id="rId109" xr:uid="{BE058808-C9A2-4224-A136-14383E3A85B7}"/>
+    <hyperlink ref="E53" r:id="rId110" xr:uid="{8BD493C8-2EB0-4692-86A5-A2E4D9B1E17C}"/>
+    <hyperlink ref="C54" r:id="rId111" xr:uid="{7112678F-7691-415A-8579-2C0ACD7B733A}"/>
+    <hyperlink ref="D54" r:id="rId112" xr:uid="{DB53CC9E-F146-4C2F-A790-1C9665E49B6E}"/>
+    <hyperlink ref="E54" r:id="rId113" xr:uid="{6CB3814F-89C6-430C-91C7-3B44ED98C46F}"/>
+    <hyperlink ref="C56" r:id="rId114" xr:uid="{E95F8AAC-06E1-4FDC-8887-F02425CD56DD}"/>
+    <hyperlink ref="D56" r:id="rId115" xr:uid="{FCBA0577-1F27-49E3-9662-B3071CC6CC2F}"/>
+    <hyperlink ref="C57" r:id="rId116" xr:uid="{0F65D19A-34ED-41D4-8D97-52DD3192FB34}"/>
+    <hyperlink ref="C59" r:id="rId117" xr:uid="{2C02AAC1-9CE0-4ACE-9A8F-FA8FA343F3A9}"/>
+    <hyperlink ref="D59" r:id="rId118" xr:uid="{19978FF7-6AE5-48A3-8F05-8FFD4D57B34A}"/>
+    <hyperlink ref="C60" r:id="rId119" xr:uid="{F8307953-DC41-4075-B11F-BB3A46C62092}"/>
+    <hyperlink ref="D60" r:id="rId120" xr:uid="{D5145C24-AB4F-49AC-AF5C-451E57D6A407}"/>
+    <hyperlink ref="C62" r:id="rId121" xr:uid="{736323D1-3F1E-43EF-BBE2-2FD9FFB404AC}"/>
+    <hyperlink ref="D62" r:id="rId122" xr:uid="{2BF39744-4677-4353-8DD9-342453217EAF}"/>
+    <hyperlink ref="E62" r:id="rId123" xr:uid="{4EFEDEA4-7628-44FD-94E0-3968C813585F}"/>
+    <hyperlink ref="C63" r:id="rId124" xr:uid="{EF968489-6132-49E4-998C-004B43CAADF5}"/>
+    <hyperlink ref="D63" r:id="rId125" xr:uid="{CEE6161B-90A7-45E6-84D2-97196D54E536}"/>
+    <hyperlink ref="C65" r:id="rId126" xr:uid="{88D7FD81-63F9-420F-AA70-56231F777FC9}"/>
+    <hyperlink ref="D65" r:id="rId127" xr:uid="{F31E04A5-F062-4FCA-806E-EF1570952126}"/>
+    <hyperlink ref="E65" r:id="rId128" xr:uid="{83818758-3F1A-43AF-902C-CDDC9CC06F9C}"/>
+    <hyperlink ref="C73" r:id="rId129" xr:uid="{281F2AAB-AFA5-4A27-96FB-C54959959D33}"/>
+    <hyperlink ref="D73" r:id="rId130" xr:uid="{486B9224-FE41-4FD4-847B-1F0FB30F32D8}"/>
+    <hyperlink ref="E73" r:id="rId131" xr:uid="{40CAF029-3FCA-438C-A1A4-BE715652EC0E}"/>
+    <hyperlink ref="C67" r:id="rId132" xr:uid="{8440B7CF-2AB5-4EBE-9A6A-B4B9763DCD2E}"/>
+    <hyperlink ref="D67" r:id="rId133" xr:uid="{4B731B36-9B0C-4DF1-B0F0-6783FCE3B772}"/>
+    <hyperlink ref="E67" r:id="rId134" xr:uid="{01206B18-3AE3-44BD-A359-797833191A18}"/>
+    <hyperlink ref="C68" r:id="rId135" xr:uid="{FAF8CD8F-9B49-4ECA-BACE-CD30B2E5E1E7}"/>
+    <hyperlink ref="D68" r:id="rId136" xr:uid="{68666B5E-C459-4F93-AC56-16AACE869486}"/>
+    <hyperlink ref="E68" r:id="rId137" xr:uid="{7A61433D-2B57-457A-83D7-084359E33044}"/>
+    <hyperlink ref="C69" r:id="rId138" xr:uid="{30F81B27-5BB1-4903-93F1-C6FFB3CA63EA}"/>
+    <hyperlink ref="D69" r:id="rId139" xr:uid="{8BE04668-B298-4065-BB79-B0324CEE4601}"/>
+    <hyperlink ref="E69" r:id="rId140" xr:uid="{707B55B4-C4FE-4B4E-AAE3-634AABC034F8}"/>
+    <hyperlink ref="C70" r:id="rId141" xr:uid="{BE069D07-B2C8-4375-940E-4A2F5332A77C}"/>
+    <hyperlink ref="D70" r:id="rId142" xr:uid="{916D81CC-946E-4460-AD32-592DAE1BC7AF}"/>
+    <hyperlink ref="E70" r:id="rId143" xr:uid="{45596EC7-D9DD-4427-87CC-737C7F8E684F}"/>
+    <hyperlink ref="C71" r:id="rId144" xr:uid="{19A7AAAC-B6D4-4112-BAD4-7E8672149518}"/>
+    <hyperlink ref="D71" r:id="rId145" xr:uid="{3E2DB5FC-6F32-4BC4-8D31-AB89F782F0B7}"/>
+    <hyperlink ref="C75" r:id="rId146" xr:uid="{427E51F0-223B-4101-A50F-874A50CA9B42}"/>
+    <hyperlink ref="D75" r:id="rId147" xr:uid="{188BBF00-7973-4A8A-9268-5287A42E5C7A}"/>
+    <hyperlink ref="E75" r:id="rId148" xr:uid="{8EF5916B-9944-422E-8D7C-F0A9F0EDD864}"/>
+    <hyperlink ref="C77" r:id="rId149" xr:uid="{793271E8-A8A2-471B-B7F5-66DB5EBB830D}"/>
+    <hyperlink ref="D77" r:id="rId150" xr:uid="{47C0C4E6-15EA-44FB-92A0-B8196B219C09}"/>
+    <hyperlink ref="E77" r:id="rId151" xr:uid="{9CAB9A7C-8685-4B35-B980-AB314ADA3505}"/>
+    <hyperlink ref="C78" r:id="rId152" xr:uid="{713E8F28-F187-4C75-AF67-A67B676049BD}"/>
+    <hyperlink ref="D78" r:id="rId153" xr:uid="{330DFC75-39D1-4CF6-BE80-8C925D23805B}"/>
+    <hyperlink ref="E78" r:id="rId154" xr:uid="{D3E68D37-51D7-4B6E-9DEC-2F42B743B89A}"/>
+    <hyperlink ref="F78" r:id="rId155" xr:uid="{B3BE9A46-00E7-4CBE-9C86-3BC891E2F877}"/>
+    <hyperlink ref="C79" r:id="rId156" xr:uid="{E959C980-893B-458E-9FB1-ABAA2EB8DE63}"/>
+    <hyperlink ref="D79" r:id="rId157" xr:uid="{4CB03F2D-F84B-46D5-9997-61FB45C22EBA}"/>
+    <hyperlink ref="E79" r:id="rId158" xr:uid="{893003A5-2754-44C5-951E-23AA3148D9CF}"/>
+    <hyperlink ref="C80" r:id="rId159" xr:uid="{0D4DE4EB-96BB-4B69-8FA3-F43BEB7E5F2A}"/>
+    <hyperlink ref="D80" r:id="rId160" xr:uid="{41E90F4B-8C73-4135-8DBE-004486E4A55C}"/>
+    <hyperlink ref="E80" r:id="rId161" xr:uid="{4D4BC485-CA6F-4CA5-AA2A-9883B13032A9}"/>
+    <hyperlink ref="C81" r:id="rId162" xr:uid="{6F2967DF-35FB-49D0-B0AD-E66459765EBD}"/>
+    <hyperlink ref="D81" r:id="rId163" xr:uid="{9EE7311F-7B58-4EAD-AB63-FD206A4AFBD0}"/>
+    <hyperlink ref="E81" r:id="rId164" xr:uid="{BBF08E3C-16E6-4D6B-B494-5D103F481FF2}"/>
+    <hyperlink ref="F81" r:id="rId165" xr:uid="{8BF537D6-FD4C-4823-B714-1C3F400ABD7C}"/>
+    <hyperlink ref="G81" r:id="rId166" xr:uid="{A2BAD26F-7A1A-4885-9E79-8150C079A858}"/>
+    <hyperlink ref="C83" r:id="rId167" xr:uid="{F0AED0E5-9680-4806-9685-A7197F6440C3}"/>
+    <hyperlink ref="D83" r:id="rId168" xr:uid="{9200D390-1A77-4015-8974-C66ECD9EE1E7}"/>
+    <hyperlink ref="E83" r:id="rId169" xr:uid="{3C1EE1FC-7AC6-441A-93B7-862D8987FA24}"/>
+    <hyperlink ref="C85" r:id="rId170" xr:uid="{0510283B-6E24-4632-A77D-E90716F00A5C}"/>
+    <hyperlink ref="D85" r:id="rId171" xr:uid="{C347BBCC-959F-40C3-944D-7088F2A33761}"/>
+    <hyperlink ref="E85" r:id="rId172" xr:uid="{AD83E7D8-DD73-4755-98A6-CFA1C79AA9B5}"/>
+    <hyperlink ref="F85" r:id="rId173" xr:uid="{E5CE158F-E533-4D6E-A35F-B99AED33D51B}"/>
+    <hyperlink ref="G85" r:id="rId174" xr:uid="{A3CE0D0C-ABD9-4CD4-814C-4A5CFACB4F5D}"/>
+    <hyperlink ref="H85" r:id="rId175" xr:uid="{E9036406-2FCF-4B31-BA73-367973484DD4}"/>
+    <hyperlink ref="I85" r:id="rId176" xr:uid="{85911482-041F-4B83-A487-99E4FA3188DF}"/>
+    <hyperlink ref="C108" r:id="rId177" xr:uid="{C65B7699-3E12-4CDF-85BB-69417685D756}"/>
+    <hyperlink ref="D108" r:id="rId178" xr:uid="{F1C7F7DB-56C3-4F1E-96DE-9078D2A2998F}"/>
+    <hyperlink ref="E108" r:id="rId179" xr:uid="{18D5ED50-8291-4C77-B839-A4DC0A7BC71F}"/>
+    <hyperlink ref="C109" r:id="rId180" xr:uid="{8E53F79D-7396-4D40-BB5B-1DD41C483292}"/>
+    <hyperlink ref="D109" r:id="rId181" xr:uid="{7ECAAFC5-C631-4170-90AB-9F550D6F6FDC}"/>
+    <hyperlink ref="E109" r:id="rId182" xr:uid="{1930E9BD-3781-441E-83AA-0001F5A19555}"/>
+    <hyperlink ref="C106" r:id="rId183" xr:uid="{19245866-064B-4E15-A8C0-91E75874D58F}"/>
+    <hyperlink ref="D106" r:id="rId184" xr:uid="{A10A5277-5403-4580-8F54-6653478BC80C}"/>
+    <hyperlink ref="E106" r:id="rId185" xr:uid="{4DB1F180-6803-4D48-88BA-3D275EAB492C}"/>
+    <hyperlink ref="F106" r:id="rId186" xr:uid="{02F69438-C795-4F8C-AF8D-1639C3A4A959}"/>
+    <hyperlink ref="G106" r:id="rId187" xr:uid="{4F0EBE4C-EFCE-4AE9-958E-DC3CC3E38FBE}"/>
+    <hyperlink ref="C87" r:id="rId188" xr:uid="{4972E1E0-F156-4EE7-9E4B-D386D5C6C4DC}"/>
+    <hyperlink ref="D87" r:id="rId189" xr:uid="{DABF61C2-6FEB-4C10-80B2-8C32FAC6AA7D}"/>
+    <hyperlink ref="E87" r:id="rId190" xr:uid="{948A55D6-FF1C-4AFB-B0F5-4F0FB43FF818}"/>
+    <hyperlink ref="C88" r:id="rId191" xr:uid="{DF914E2F-3616-4E22-A932-A5B8A4F80410}"/>
+    <hyperlink ref="D88" r:id="rId192" xr:uid="{72012A7F-0917-4335-8050-E281D4E606D9}"/>
+    <hyperlink ref="E88" r:id="rId193" xr:uid="{6FDA9ECF-4D43-4755-9719-E84F8BAA8FBB}"/>
+    <hyperlink ref="F88" r:id="rId194" xr:uid="{B9EFC835-43B8-4A68-939D-9194FFE37674}"/>
+    <hyperlink ref="C89" r:id="rId195" xr:uid="{F16020EC-B69F-4134-A935-20125711F993}"/>
+    <hyperlink ref="D89" r:id="rId196" xr:uid="{10BC8553-9C48-4A58-AF73-CDBEE7304BBB}"/>
+    <hyperlink ref="E89" r:id="rId197" xr:uid="{5E80F59C-E87D-4509-A523-41759CF8806D}"/>
+    <hyperlink ref="C90" r:id="rId198" xr:uid="{69DD1ED0-46B3-46C0-BF3B-D39754D8CFD8}"/>
+    <hyperlink ref="D90" r:id="rId199" xr:uid="{7B133A3E-9CAE-4B76-A937-F4CC3BBFB173}"/>
+    <hyperlink ref="C91" r:id="rId200" xr:uid="{38F66C08-17E9-449D-A763-073B3D454C0D}"/>
+    <hyperlink ref="D91" r:id="rId201" xr:uid="{E3856714-41FA-4D49-A761-900CF7F3ACD3}"/>
+    <hyperlink ref="E91" r:id="rId202" xr:uid="{E158DAC2-6C26-4CFE-81FA-77663D488B60}"/>
+    <hyperlink ref="C92" r:id="rId203" xr:uid="{B8E47F09-3C5B-477D-B880-84092C268966}"/>
+    <hyperlink ref="D92" r:id="rId204" xr:uid="{D9E90197-4397-4DDF-88C1-FE0F6E4FFCC1}"/>
+    <hyperlink ref="E92" r:id="rId205" xr:uid="{E255B854-E556-4482-8AC8-502154DEE482}"/>
+    <hyperlink ref="C93" r:id="rId206" xr:uid="{20DB4E75-5C8A-4773-942B-FB97A995F26B}"/>
+    <hyperlink ref="D93" r:id="rId207" xr:uid="{C13D5F50-E0AD-41F2-A98E-67A3FFE4B25D}"/>
+    <hyperlink ref="E93" r:id="rId208" xr:uid="{6407349A-FB3D-4323-9E1F-77BD9FD58B1F}"/>
+    <hyperlink ref="F93" r:id="rId209" xr:uid="{84C9FDFB-F1DE-47AD-9BBB-5106A2733F82}"/>
+    <hyperlink ref="C94" r:id="rId210" xr:uid="{2E58CAF4-0CA7-4CE8-B434-B5CCEA7E290B}"/>
+    <hyperlink ref="D94" r:id="rId211" xr:uid="{8C720CA0-7F4F-487E-A793-AD2F7AC3DBD8}"/>
+    <hyperlink ref="E94" r:id="rId212" xr:uid="{D08764F7-8105-4AD3-8E99-48679CE846C6}"/>
+    <hyperlink ref="C96" r:id="rId213" xr:uid="{3C3739A4-C2FD-4B68-8E22-D22BE9634D07}"/>
+    <hyperlink ref="D96" r:id="rId214" xr:uid="{B9090642-978C-4AFC-ABD6-7F4373DD8489}"/>
+    <hyperlink ref="E96" r:id="rId215" xr:uid="{8CC73B22-5F4E-42CE-8714-B171E997A8D3}"/>
+    <hyperlink ref="C97" r:id="rId216" xr:uid="{804380DF-0BDF-41A8-B788-27B131E79070}"/>
+    <hyperlink ref="D97" r:id="rId217" xr:uid="{6C7D4D22-F3D2-4F46-8528-046C89845213}"/>
+    <hyperlink ref="E97" r:id="rId218" xr:uid="{28D113D0-B8B0-46E1-A25E-E0DE5A6581D4}"/>
+    <hyperlink ref="C98" r:id="rId219" xr:uid="{DDE726A0-6FF6-484B-AD28-D77FA86787C4}"/>
+    <hyperlink ref="D98" r:id="rId220" xr:uid="{21F47FD3-5562-423F-8142-AA2BAFE4B5C5}"/>
+    <hyperlink ref="E98" r:id="rId221" xr:uid="{932B19CC-12B2-4D86-B53D-826B4A59F674}"/>
+    <hyperlink ref="C99" r:id="rId222" xr:uid="{546FCE36-C2F9-4159-8E37-222BDDF79C76}"/>
+    <hyperlink ref="D99" r:id="rId223" xr:uid="{5CB21B09-42DE-488E-89E4-A56E67BBABD0}"/>
+    <hyperlink ref="E99" r:id="rId224" xr:uid="{9E508F18-4C1A-44A3-8D9B-A633BAA2B2A6}"/>
+    <hyperlink ref="C101" r:id="rId225" xr:uid="{022F3594-67B0-48FB-8186-85EBA9D76C74}"/>
+    <hyperlink ref="D101" r:id="rId226" xr:uid="{FDFC8794-2516-41C8-9D59-E2DB5CD7CDAF}"/>
+    <hyperlink ref="E101" r:id="rId227" xr:uid="{9DF3007B-54A0-4AB6-AF85-6FA94DFCC2A9}"/>
+    <hyperlink ref="C102" r:id="rId228" xr:uid="{93D26EC4-112D-4DAA-8A9E-1CBF31906F0E}"/>
+    <hyperlink ref="D102" r:id="rId229" xr:uid="{A013D31E-5998-4821-8CD5-8C3D0480F770}"/>
+    <hyperlink ref="E102" r:id="rId230" xr:uid="{EC9AE497-197F-4D67-B69F-85FA1DD083A4}"/>
+    <hyperlink ref="C103" r:id="rId231" xr:uid="{4F741949-FC8D-4367-80FC-BEAD3E4FA57F}"/>
+    <hyperlink ref="D103" r:id="rId232" xr:uid="{B1966106-B1C0-4FA2-AEFB-2FACCACCCDBF}"/>
+    <hyperlink ref="C104" r:id="rId233" xr:uid="{826BC858-3FF7-49D1-8233-B140A34C60A2}"/>
+    <hyperlink ref="B3" r:id="rId234" display="Box 1          Folder10" xr:uid="{9B931DEC-CAAC-40FA-8EAD-0C6A506FF214}"/>
+    <hyperlink ref="C3" r:id="rId235" xr:uid="{0AF84BD4-9F95-40F5-B4BF-3460123B90E8}"/>
+    <hyperlink ref="D3" r:id="rId236" xr:uid="{D1735A77-05B6-438C-8E04-59F4CD1994CE}"/>
+    <hyperlink ref="E3" r:id="rId237" xr:uid="{56307C5E-552B-426E-AA0E-ED4B686EF9A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId234"/>
+  <pageSetup orientation="portrait" r:id="rId238"/>
 </worksheet>
 </file>
--- a/Index.xlsx
+++ b/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\uwecMuseum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492322F7-7D6A-4E68-80FA-7C299EB54B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FB9CB1-080A-48D2-95E3-B1FF58D584DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{73CDAB4E-9CF5-4FFB-9A2A-33804757E7C8}"/>
   </bookViews>
@@ -602,9 +602,6 @@
     <t>Document 3</t>
   </si>
   <si>
-    <t>Orry Walz                     Ifugao Coorrespondance</t>
-  </si>
-  <si>
     <t>Box 1 Folder11</t>
   </si>
   <si>
@@ -615,6 +612,9 @@
   </si>
   <si>
     <t>Box 1 Folder10</t>
+  </si>
+  <si>
+    <t>Orry Walz Ifugao Coorrespondance</t>
   </si>
 </sst>
 </file>
@@ -718,14 +718,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E320F0C-AA5B-48B7-AFAF-C1546C0DD64F}">
   <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,20 +1095,20 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>190</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1177,7 +1177,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1201,7 +1201,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1319,7 +1319,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
@@ -1341,7 +1341,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
@@ -1363,7 +1363,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
@@ -1385,7 +1385,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
@@ -1407,7 +1407,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
@@ -1441,7 +1441,7 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1465,7 +1465,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
@@ -1487,7 +1487,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="5" t="s">
         <v>27</v>
       </c>
@@ -1567,7 +1567,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1649,7 +1649,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
@@ -1671,7 +1671,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="5" t="s">
         <v>35</v>
       </c>
@@ -1695,7 +1695,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1753,7 +1753,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="5" t="s">
         <v>41</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="5" t="s">
         <v>42</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -1835,7 +1835,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="5" t="s">
         <v>54</v>
       </c>
@@ -1857,7 +1857,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
         <v>55</v>
       </c>
@@ -1879,7 +1879,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="5" t="s">
         <v>56</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -1935,7 +1935,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="5" t="s">
         <v>59</v>
       </c>
@@ -1953,7 +1953,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="5" t="s">
         <v>60</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="14" t="s">
         <v>143</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -2039,7 +2039,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="5" t="s">
         <v>144</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="5" t="s">
         <v>146</v>
       </c>
@@ -2083,7 +2083,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="5" t="s">
         <v>147</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="5" t="s">
         <v>148</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="J55" s="5"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -2161,7 +2161,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="5" t="s">
         <v>156</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="14" t="s">
         <v>171</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -2213,7 +2213,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="5" t="s">
         <v>173</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="J61" s="5"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -2269,7 +2269,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="5" t="s">
         <v>165</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -2361,7 +2361,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="A68" s="14"/>
       <c r="B68" s="5" t="s">
         <v>113</v>
       </c>
@@ -2383,7 +2383,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="5" t="s">
         <v>120</v>
       </c>
@@ -2405,7 +2405,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="5" t="s">
         <v>114</v>
       </c>
@@ -2427,7 +2427,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="5" t="s">
         <v>115</v>
       </c>
@@ -2531,7 +2531,7 @@
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -2555,7 +2555,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
+      <c r="A78" s="14"/>
       <c r="B78" s="5" t="s">
         <v>86</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="5" t="s">
         <v>84</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="5" t="s">
         <v>87</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="5" t="s">
         <v>88</v>
       </c>
@@ -2649,7 +2649,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="5"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2661,7 +2661,7 @@
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="5" t="s">
         <v>89</v>
       </c>
@@ -2739,7 +2739,7 @@
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -2763,7 +2763,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
+      <c r="A88" s="14"/>
       <c r="B88" s="5" t="s">
         <v>96</v>
       </c>
@@ -2787,7 +2787,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="5" t="s">
         <v>97</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
+      <c r="A90" s="14"/>
       <c r="B90" s="5" t="s">
         <v>98</v>
       </c>
@@ -2828,7 +2828,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+      <c r="A91" s="14"/>
       <c r="B91" s="5" t="s">
         <v>99</v>
       </c>
@@ -2850,7 +2850,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
+      <c r="A92" s="14"/>
       <c r="B92" s="5" t="s">
         <v>100</v>
       </c>
@@ -2872,7 +2872,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
+      <c r="A93" s="14"/>
       <c r="B93" s="5" t="s">
         <v>101</v>
       </c>
@@ -2896,7 +2896,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+      <c r="A94" s="14"/>
       <c r="B94" s="5" t="s">
         <v>102</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="J95" s="5"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="14" t="s">
         <v>124</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -2954,7 +2954,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
+      <c r="A97" s="14"/>
       <c r="B97" s="5" t="s">
         <v>128</v>
       </c>
@@ -2976,7 +2976,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
+      <c r="A98" s="14"/>
       <c r="B98" s="5" t="s">
         <v>123</v>
       </c>
@@ -2998,7 +2998,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
+      <c r="A99" s="14"/>
       <c r="B99" s="5" t="s">
         <v>130</v>
       </c>
@@ -3029,7 +3029,7 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="14" t="s">
         <v>139</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -3053,7 +3053,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
+      <c r="A102" s="14"/>
       <c r="B102" s="5" t="s">
         <v>132</v>
       </c>
@@ -3075,7 +3075,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+      <c r="A103" s="14"/>
       <c r="B103" s="5" t="s">
         <v>133</v>
       </c>
@@ -3095,7 +3095,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="5" t="s">
         <v>134</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -3189,7 +3189,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="5" t="s">
         <v>80</v>
       </c>
@@ -3217,12 +3217,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A44:A46"/>
@@ -3235,6 +3229,12 @@
     <mergeCell ref="A87:A94"/>
     <mergeCell ref="A96:A99"/>
     <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1" display="see Packing Letter" xr:uid="{D01C6424-592D-4F4A-88C5-D71A0889B6EB}"/>

--- a/Index.xlsx
+++ b/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\uwecMuseum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FB9CB1-080A-48D2-95E3-B1FF58D584DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E87295-C898-45DE-9A0C-4AC4DD84F2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{73CDAB4E-9CF5-4FFB-9A2A-33804757E7C8}"/>
   </bookViews>
@@ -614,7 +614,7 @@
     <t>Box 1 Folder10</t>
   </si>
   <si>
-    <t>Orry Walz Ifugao Coorrespondance</t>
+    <t>Orry Walz Ifugao Correspondence</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,6 +3217,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A44:A46"/>
@@ -3229,12 +3235,6 @@
     <mergeCell ref="A87:A94"/>
     <mergeCell ref="A96:A99"/>
     <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1" display="see Packing Letter" xr:uid="{D01C6424-592D-4F4A-88C5-D71A0889B6EB}"/>
